--- a/work/项目落地/“云啸”智推一期/010_项目管理/040_进度管理/云啸_智推_开发计划表.xlsx
+++ b/work/项目落地/“云啸”智推一期/010_项目管理/040_进度管理/云啸_智推_开发计划表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lixl\Desktop\“云啸”智推一期\010_项目管理\040_进度管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\dataggr\psb\萧山公安\“云啸”智推一期\010_项目管理\040_进度管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8112" tabRatio="252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8115" tabRatio="252"/>
   </bookViews>
   <sheets>
     <sheet name="用纸" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">用纸!$A$5:$CD$71</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="215">
   <si>
     <t>机能ID</t>
   </si>
@@ -385,6 +385,22 @@
     <t>——</t>
   </si>
   <si>
+    <t>季长志</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶翱翔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李伟</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>贺拥辉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>云啸智推开发计划表</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -408,6 +424,29 @@
   </si>
   <si>
     <t>页面优化，侧边栏地图显示联动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>志</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +513,21 @@
   </si>
   <si>
     <r>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伟</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>t</t>
     </r>
     <r>
@@ -808,12 +862,66 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>志</t>
+    </r>
+  </si>
+  <si>
     <t>datastatistics</t>
   </si>
   <si>
     <t>数据统计</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>叶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>翔</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">  综合数据列表</t>
   </si>
   <si>
@@ -835,6 +943,9 @@
     <t>数据监测</t>
   </si>
   <si>
+    <t>李伟</t>
+  </si>
+  <si>
     <t>detail</t>
   </si>
   <si>
@@ -847,6 +958,25 @@
     <t>数据目录</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伟</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">        详情</t>
   </si>
   <si>
@@ -875,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">  数据分类</t>
+  </si>
+  <si>
+    <t>贺拥辉</t>
   </si>
   <si>
     <t xml:space="preserve">    新增数据分类</t>
@@ -1038,6 +1171,58 @@
   <si>
     <t>废止</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>叶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>翔</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>志</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>季长志</t>
+  </si>
+  <si>
+    <t>叶翱翔</t>
   </si>
   <si>
     <r>
@@ -1190,6 +1375,21 @@
   </si>
   <si>
     <t xml:space="preserve">  基本登记</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伟</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1458,11 +1658,34 @@
     <t>后续增加数据引入接口，再相应增加页面</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>季</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="HG創英角ｺﾞｼｯｸUB"/>
+        <charset val="128"/>
+      </rPr>
+      <t>志</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
@@ -1847,25 +2070,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1921,23 +2145,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1948,7 +2171,343 @@
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="5"/>
   </cellStyles>
-  <dxfs count="536">
+  <dxfs count="584">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498458815271462"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5715,7 +6274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6003,178 +6562,178 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="32" ySplit="5" topLeftCell="AG6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="32" ySplit="5" topLeftCell="AG81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG111" sqref="AG111:AG114"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="7.5" hidden="1" customWidth="1"/>
     <col min="7" max="11" width="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" hidden="1" customWidth="1"/>
-    <col min="13" max="16" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="4.375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="4.375" hidden="1" customWidth="1"/>
     <col min="23" max="25" width="9" hidden="1" customWidth="1"/>
-    <col min="26" max="30" width="4.33203125" hidden="1" customWidth="1"/>
+    <col min="26" max="30" width="4.375" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.21875" customWidth="1"/>
-    <col min="35" max="38" width="4.77734375" customWidth="1"/>
+    <col min="32" max="32" width="8.875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.25" customWidth="1"/>
+    <col min="35" max="38" width="4.75" customWidth="1"/>
     <col min="39" max="40" width="9" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="6" customWidth="1"/>
-    <col min="43" max="46" width="4.33203125" customWidth="1"/>
+    <col min="43" max="46" width="4.375" customWidth="1"/>
     <col min="47" max="48" width="9" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="8.44140625" customWidth="1"/>
-    <col min="50" max="50" width="6.77734375" customWidth="1"/>
+    <col min="49" max="49" width="8.5" customWidth="1"/>
+    <col min="50" max="50" width="6.75" customWidth="1"/>
     <col min="51" max="54" width="5" customWidth="1"/>
     <col min="55" max="56" width="9" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="9" customWidth="1"/>
     <col min="58" max="58" width="6" customWidth="1"/>
-    <col min="59" max="62" width="4.77734375" customWidth="1"/>
+    <col min="59" max="62" width="4.75" customWidth="1"/>
     <col min="63" max="64" width="9" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="5" customWidth="1"/>
-    <col min="67" max="70" width="4.33203125" customWidth="1"/>
-    <col min="71" max="71" width="5.21875" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="5.109375" customWidth="1"/>
+    <col min="67" max="70" width="4.375" customWidth="1"/>
+    <col min="71" max="71" width="5.25" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="5.125" customWidth="1"/>
     <col min="73" max="74" width="9" hidden="1" customWidth="1"/>
-    <col min="75" max="78" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="75" max="78" width="4.5" hidden="1" customWidth="1"/>
     <col min="79" max="80" width="9" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="51.44140625" customWidth="1"/>
+    <col min="81" max="81" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:83">
       <c r="A2" s="19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:83">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="55" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="56" t="s">
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="55" t="s">
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="56" t="s">
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="55" t="s">
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="57"/>
+      <c r="BA3" s="57"/>
+      <c r="BB3" s="57"/>
+      <c r="BC3" s="57"/>
+      <c r="BD3" s="57"/>
+      <c r="BE3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="BF3" s="55"/>
-      <c r="BG3" s="55"/>
-      <c r="BH3" s="55"/>
-      <c r="BI3" s="55"/>
-      <c r="BJ3" s="55"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55"/>
-      <c r="BM3" s="56" t="s">
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="50"/>
+      <c r="BK3" s="50"/>
+      <c r="BL3" s="50"/>
+      <c r="BM3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="56"/>
-      <c r="BT3" s="56"/>
-      <c r="BU3" s="55" t="s">
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
+      <c r="BR3" s="57"/>
+      <c r="BS3" s="57"/>
+      <c r="BT3" s="57"/>
+      <c r="BU3" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="BV3" s="55"/>
-      <c r="BW3" s="55"/>
-      <c r="BX3" s="55"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="55"/>
-      <c r="CA3" s="55"/>
-      <c r="CB3" s="55"/>
-      <c r="CC3" s="71" t="s">
+      <c r="BV3" s="50"/>
+      <c r="BW3" s="50"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="50"/>
+      <c r="BZ3" s="50"/>
+      <c r="CA3" s="50"/>
+      <c r="CB3" s="50"/>
+      <c r="CC3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="CD3" s="74" t="s">
+      <c r="CD3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CE3" s="75" t="s">
+      <c r="CE3" s="55" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6185,211 +6744,211 @@
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="69" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="57" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="55"/>
-      <c r="U4" s="57" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="57" t="s">
+      <c r="Z4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="57" t="s">
+      <c r="AA4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="57" t="s">
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55" t="s">
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AF4" s="57" t="s">
+      <c r="AF4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="56" t="s">
+      <c r="AG4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="58" t="s">
+      <c r="AH4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="58" t="s">
+      <c r="AI4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="58" t="s">
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56" t="s">
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AN4" s="56" t="s">
+      <c r="AN4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AO4" s="55" t="s">
+      <c r="AO4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="AP4" s="57" t="s">
+      <c r="AP4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AQ4" s="57" t="s">
+      <c r="AQ4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="57" t="s">
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55" t="s">
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="57" t="s">
+      <c r="AV4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AW4" s="56" t="s">
+      <c r="AW4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AX4" s="58" t="s">
+      <c r="AX4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="58" t="s">
+      <c r="AY4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="58" t="s">
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56" t="s">
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BD4" s="58" t="s">
+      <c r="BD4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="BE4" s="55" t="s">
+      <c r="BE4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="BF4" s="57" t="s">
+      <c r="BF4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="BG4" s="57" t="s">
+      <c r="BG4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="57" t="s">
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55" t="s">
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="BL4" s="57" t="s">
+      <c r="BL4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="BM4" s="56" t="s">
+      <c r="BM4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="BN4" s="58" t="s">
+      <c r="BN4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BO4" s="58" t="s">
+      <c r="BO4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="58" t="s">
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="56" t="s">
+      <c r="BR4" s="57"/>
+      <c r="BS4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BT4" s="56" t="s">
+      <c r="BT4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="BU4" s="55" t="s">
+      <c r="BU4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="BV4" s="57" t="s">
+      <c r="BV4" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="BW4" s="57" t="s">
+      <c r="BW4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="57" t="s">
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="55" t="s">
+      <c r="BZ4" s="50"/>
+      <c r="CA4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="CB4" s="55" t="s">
+      <c r="CB4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="CC4" s="72"/>
-      <c r="CD4" s="74"/>
-      <c r="CE4" s="76"/>
+      <c r="CC4" s="52"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="56"/>
     </row>
     <row r="5" spans="1:83">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6402,8 +6961,8 @@
       <c r="P5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
       <c r="S5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6416,10 +6975,10 @@
       <c r="V5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
       <c r="AA5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6432,10 +6991,10 @@
       <c r="AD5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
       <c r="AI5" s="21" t="s">
         <v>31</v>
       </c>
@@ -6448,10 +7007,10 @@
       <c r="AL5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
       <c r="AQ5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6464,10 +7023,10 @@
       <c r="AT5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="57"/>
       <c r="AY5" s="21" t="s">
         <v>31</v>
       </c>
@@ -6480,10 +7039,10 @@
       <c r="BB5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="55"/>
-      <c r="BF5" s="55"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
       <c r="BG5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6496,10 +7055,10 @@
       <c r="BJ5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="57"/>
+      <c r="BN5" s="57"/>
       <c r="BO5" s="21" t="s">
         <v>31</v>
       </c>
@@ -6512,10 +7071,10 @@
       <c r="BR5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="BS5" s="56"/>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="55"/>
-      <c r="BV5" s="55"/>
+      <c r="BS5" s="57"/>
+      <c r="BT5" s="57"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
       <c r="BW5" s="20" t="s">
         <v>31</v>
       </c>
@@ -6528,21 +7087,21 @@
       <c r="BZ5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="CA5" s="55"/>
-      <c r="CB5" s="55"/>
-      <c r="CC5" s="73"/>
-      <c r="CD5" s="74"/>
-      <c r="CE5" s="76"/>
+      <c r="CA5" s="50"/>
+      <c r="CB5" s="50"/>
+      <c r="CC5" s="53"/>
+      <c r="CD5" s="54"/>
+      <c r="CE5" s="56"/>
     </row>
     <row r="6" spans="1:83">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6625,19 +7184,19 @@
     </row>
     <row r="7" spans="1:83">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6666,7 +7225,9 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="7"/>
+      <c r="AG7" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="AH7" s="6">
         <v>0.9</v>
       </c>
@@ -6682,7 +7243,9 @@
       <c r="AL7" s="9"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP7" s="6"/>
       <c r="AQ7" s="8">
         <v>43095</v>
@@ -6694,7 +7257,9 @@
       <c r="AT7" s="9"/>
       <c r="AU7" s="7"/>
       <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
+      <c r="AW7" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="AX7" s="6"/>
       <c r="AY7" s="8">
         <v>43097</v>
@@ -6714,7 +7279,9 @@
       <c r="BJ7" s="10"/>
       <c r="BK7" s="7"/>
       <c r="BL7" s="7"/>
-      <c r="BM7" s="7"/>
+      <c r="BM7" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN7" s="6"/>
       <c r="BO7" s="8">
         <v>43098</v>
@@ -6745,13 +7312,13 @@
     <row r="8" spans="1:83">
       <c r="A8" s="3"/>
       <c r="B8" s="23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="3"/>
@@ -6781,7 +7348,9 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="7"/>
+      <c r="AG8" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AH8" s="6">
         <v>0.7</v>
       </c>
@@ -6797,7 +7366,9 @@
       <c r="AL8" s="9"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="AP8" s="6">
         <v>1</v>
       </c>
@@ -6815,7 +7386,9 @@
       </c>
       <c r="AU8" s="7"/>
       <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
+      <c r="AW8" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AX8" s="6"/>
       <c r="AY8" s="8">
         <v>43097</v>
@@ -6835,7 +7408,9 @@
       <c r="BJ8" s="10"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="7"/>
-      <c r="BM8" s="7"/>
+      <c r="BM8" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="BN8" s="6"/>
       <c r="BO8" s="8">
         <v>43098</v>
@@ -6866,13 +7441,13 @@
     <row r="9" spans="1:83" s="44" customFormat="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="32"/>
@@ -6902,7 +7477,9 @@
       <c r="AD9" s="39"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
-      <c r="AG9" s="36"/>
+      <c r="AG9" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="AH9" s="37">
         <v>1</v>
       </c>
@@ -6912,7 +7489,9 @@
       <c r="AL9" s="39"/>
       <c r="AM9" s="36"/>
       <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
+      <c r="AO9" s="36" t="s">
+        <v>164</v>
+      </c>
       <c r="AP9" s="6">
         <v>1</v>
       </c>
@@ -6930,7 +7509,9 @@
       </c>
       <c r="AU9" s="36"/>
       <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
+      <c r="AW9" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="AX9" s="37"/>
       <c r="AY9" s="8">
         <v>43097</v>
@@ -6950,7 +7531,9 @@
       <c r="BJ9" s="40"/>
       <c r="BK9" s="36"/>
       <c r="BL9" s="36"/>
-      <c r="BM9" s="7"/>
+      <c r="BM9" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="BN9" s="37"/>
       <c r="BO9" s="8">
         <v>43098</v>
@@ -6981,13 +7564,13 @@
     <row r="10" spans="1:83">
       <c r="A10" s="3"/>
       <c r="B10" s="23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="3"/>
@@ -7017,7 +7600,9 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="7"/>
+      <c r="AG10" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AH10" s="6">
         <v>1</v>
       </c>
@@ -7031,7 +7616,9 @@
       <c r="AL10" s="9"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
+      <c r="AO10" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP10" s="6">
         <v>1</v>
       </c>
@@ -7049,7 +7636,9 @@
       </c>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
+      <c r="AW10" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AX10" s="6"/>
       <c r="AY10" s="8">
         <v>43097</v>
@@ -7069,7 +7658,9 @@
       <c r="BJ10" s="10"/>
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
+      <c r="BM10" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="BN10" s="6"/>
       <c r="BO10" s="8">
         <v>43098</v>
@@ -7100,13 +7691,13 @@
     <row r="11" spans="1:83">
       <c r="A11" s="3"/>
       <c r="B11" s="23" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="3"/>
@@ -7136,7 +7727,9 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="7"/>
+      <c r="AG11" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AH11" s="6">
         <v>1</v>
       </c>
@@ -7150,7 +7743,9 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
+      <c r="AO11" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP11" s="6">
         <v>1</v>
       </c>
@@ -7168,7 +7763,9 @@
       </c>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
+      <c r="AW11" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="AX11" s="6"/>
       <c r="AY11" s="8">
         <v>43097</v>
@@ -7188,7 +7785,9 @@
       <c r="BJ11" s="10"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
+      <c r="BM11" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="BN11" s="6"/>
       <c r="BO11" s="8">
         <v>43098</v>
@@ -7219,13 +7818,13 @@
     <row r="12" spans="1:83">
       <c r="A12" s="3"/>
       <c r="B12" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="3"/>
@@ -7255,7 +7854,9 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="7"/>
+      <c r="AG12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH12" s="6"/>
       <c r="AI12" s="8">
         <v>43077</v>
@@ -7267,7 +7868,9 @@
       <c r="AL12" s="9"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
+      <c r="AO12" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP12" s="6">
         <v>1</v>
       </c>
@@ -7285,7 +7888,9 @@
       </c>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
+      <c r="AW12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX12" s="6"/>
       <c r="AY12" s="8">
         <v>43097</v>
@@ -7305,7 +7910,9 @@
       <c r="BJ12" s="10"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
+      <c r="BM12" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN12" s="6"/>
       <c r="BO12" s="8">
         <v>43098</v>
@@ -7336,13 +7943,13 @@
     <row r="13" spans="1:83">
       <c r="A13" s="3"/>
       <c r="B13" s="23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="3"/>
@@ -7372,7 +7979,9 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="7"/>
+      <c r="AG13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="8">
         <v>43077</v>
@@ -7384,7 +7993,9 @@
       <c r="AL13" s="9"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
+      <c r="AO13" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP13" s="6">
         <v>1</v>
       </c>
@@ -7402,7 +8013,9 @@
       </c>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
+      <c r="AW13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX13" s="6"/>
       <c r="AY13" s="8">
         <v>43097</v>
@@ -7422,7 +8035,9 @@
       <c r="BJ13" s="10"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
+      <c r="BM13" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN13" s="6"/>
       <c r="BO13" s="8">
         <v>43098</v>
@@ -7453,13 +8068,13 @@
     <row r="14" spans="1:83">
       <c r="A14" s="3"/>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="3"/>
@@ -7489,7 +8104,9 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="7"/>
+      <c r="AG14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AH14" s="6">
         <v>1</v>
       </c>
@@ -7507,7 +8124,9 @@
       </c>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
+      <c r="AO14" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP14" s="6">
         <v>1</v>
       </c>
@@ -7525,7 +8144,9 @@
       </c>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
-      <c r="AW14" s="7"/>
+      <c r="AW14" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AX14" s="6"/>
       <c r="AY14" s="8">
         <v>43097</v>
@@ -7545,7 +8166,9 @@
       <c r="BJ14" s="10"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
+      <c r="BM14" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN14" s="6"/>
       <c r="BO14" s="8">
         <v>43098</v>
@@ -7576,13 +8199,13 @@
     <row r="15" spans="1:83">
       <c r="A15" s="3"/>
       <c r="B15" s="23" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="3"/>
@@ -7612,7 +8235,9 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="7"/>
+      <c r="AG15" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AH15" s="6">
         <v>1</v>
       </c>
@@ -7630,7 +8255,9 @@
       </c>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
+      <c r="AO15" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP15" s="6">
         <v>1</v>
       </c>
@@ -7648,7 +8275,9 @@
       </c>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
-      <c r="AW15" s="7"/>
+      <c r="AW15" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AX15" s="6"/>
       <c r="AY15" s="8">
         <v>43097</v>
@@ -7668,7 +8297,9 @@
       <c r="BJ15" s="10"/>
       <c r="BK15" s="7"/>
       <c r="BL15" s="7"/>
-      <c r="BM15" s="7"/>
+      <c r="BM15" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN15" s="6"/>
       <c r="BO15" s="8">
         <v>43098</v>
@@ -7699,13 +8330,13 @@
     <row r="16" spans="1:83">
       <c r="A16" s="3"/>
       <c r="B16" s="23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="3"/>
@@ -7735,7 +8366,9 @@
       <c r="AD16" s="9"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="7"/>
+      <c r="AG16" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AH16" s="6">
         <v>1</v>
       </c>
@@ -7753,7 +8386,9 @@
       </c>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP16" s="6">
         <v>1</v>
       </c>
@@ -7771,7 +8406,9 @@
       </c>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
-      <c r="AW16" s="7"/>
+      <c r="AW16" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AX16" s="6"/>
       <c r="AY16" s="8">
         <v>43097</v>
@@ -7791,7 +8428,9 @@
       <c r="BJ16" s="10"/>
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
+      <c r="BM16" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN16" s="6"/>
       <c r="BO16" s="8">
         <v>43098</v>
@@ -7822,13 +8461,13 @@
     <row r="17" spans="1:83">
       <c r="A17" s="3"/>
       <c r="B17" s="23" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="3"/>
@@ -7858,7 +8497,9 @@
       <c r="AD17" s="9"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="7"/>
+      <c r="AG17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AH17" s="6">
         <v>1</v>
       </c>
@@ -7876,7 +8517,9 @@
       </c>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
+      <c r="AO17" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP17" s="6">
         <v>1</v>
       </c>
@@ -7894,7 +8537,9 @@
       </c>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
-      <c r="AW17" s="7"/>
+      <c r="AW17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="AX17" s="6"/>
       <c r="AY17" s="8">
         <v>43097</v>
@@ -7914,7 +8559,9 @@
       <c r="BJ17" s="10"/>
       <c r="BK17" s="7"/>
       <c r="BL17" s="7"/>
-      <c r="BM17" s="7"/>
+      <c r="BM17" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN17" s="6"/>
       <c r="BO17" s="8">
         <v>43098</v>
@@ -7945,14 +8592,14 @@
     <row r="18" spans="1:83">
       <c r="A18" s="3"/>
       <c r="B18" s="23" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -8036,13 +8683,13 @@
     <row r="19" spans="1:83">
       <c r="A19" s="3"/>
       <c r="B19" s="23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="3"/>
@@ -8072,7 +8719,9 @@
       <c r="AD19" s="9"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="7"/>
+      <c r="AG19" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH19" s="6">
         <v>1</v>
       </c>
@@ -8090,7 +8739,9 @@
       </c>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
+      <c r="AO19" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="8">
         <v>43095</v>
@@ -8102,7 +8753,9 @@
       <c r="AT19" s="9"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
+      <c r="AW19" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX19" s="6"/>
       <c r="AY19" s="8">
         <v>43097</v>
@@ -8122,7 +8775,9 @@
       <c r="BJ19" s="10"/>
       <c r="BK19" s="7"/>
       <c r="BL19" s="7"/>
-      <c r="BM19" s="7"/>
+      <c r="BM19" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN19" s="6"/>
       <c r="BO19" s="8">
         <v>43098</v>
@@ -8153,13 +8808,13 @@
     <row r="20" spans="1:83">
       <c r="A20" s="3"/>
       <c r="B20" s="23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="3"/>
@@ -8189,7 +8844,9 @@
       <c r="AD20" s="9"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="7"/>
+      <c r="AG20" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH20" s="6">
         <v>1</v>
       </c>
@@ -8207,7 +8864,9 @@
       </c>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
+      <c r="AO20" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="8">
         <v>43095</v>
@@ -8219,7 +8878,9 @@
       <c r="AT20" s="9"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
-      <c r="AW20" s="7"/>
+      <c r="AW20" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX20" s="6"/>
       <c r="AY20" s="8">
         <v>43097</v>
@@ -8239,7 +8900,9 @@
       <c r="BJ20" s="10"/>
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
+      <c r="BM20" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN20" s="6"/>
       <c r="BO20" s="8">
         <v>43098</v>
@@ -8270,13 +8933,13 @@
     <row r="21" spans="1:83">
       <c r="A21" s="3"/>
       <c r="B21" s="23" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="3"/>
@@ -8306,7 +8969,9 @@
       <c r="AD21" s="9"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="7"/>
+      <c r="AG21" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH21" s="6">
         <v>1</v>
       </c>
@@ -8324,7 +8989,9 @@
       </c>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
+      <c r="AO21" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="8">
         <v>43095</v>
@@ -8336,7 +9003,9 @@
       <c r="AT21" s="9"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
-      <c r="AW21" s="7"/>
+      <c r="AW21" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX21" s="6"/>
       <c r="AY21" s="8">
         <v>43097</v>
@@ -8356,7 +9025,9 @@
       <c r="BJ21" s="10"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
+      <c r="BM21" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN21" s="6"/>
       <c r="BO21" s="8">
         <v>43098</v>
@@ -8387,13 +9058,13 @@
     <row r="22" spans="1:83">
       <c r="A22" s="3"/>
       <c r="B22" s="23" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="3"/>
@@ -8423,7 +9094,9 @@
       <c r="AD22" s="9"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="7"/>
+      <c r="AG22" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH22" s="6">
         <v>1</v>
       </c>
@@ -8441,7 +9114,9 @@
       </c>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
+      <c r="AO22" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP22" s="6"/>
       <c r="AQ22" s="8">
         <v>43095</v>
@@ -8453,7 +9128,9 @@
       <c r="AT22" s="9"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
-      <c r="AW22" s="7"/>
+      <c r="AW22" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX22" s="6"/>
       <c r="AY22" s="8">
         <v>43097</v>
@@ -8473,7 +9150,9 @@
       <c r="BJ22" s="10"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="7"/>
-      <c r="BM22" s="7"/>
+      <c r="BM22" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN22" s="6"/>
       <c r="BO22" s="8">
         <v>43098</v>
@@ -8504,13 +9183,13 @@
     <row r="23" spans="1:83">
       <c r="A23" s="3"/>
       <c r="B23" s="23" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="3"/>
@@ -8540,7 +9219,9 @@
       <c r="AD23" s="9"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="7"/>
+      <c r="AG23" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH23" s="6">
         <v>1</v>
       </c>
@@ -8558,7 +9239,9 @@
       </c>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
+      <c r="AO23" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP23" s="6"/>
       <c r="AQ23" s="8">
         <v>43095</v>
@@ -8570,7 +9253,9 @@
       <c r="AT23" s="9"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
+      <c r="AW23" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX23" s="6"/>
       <c r="AY23" s="8">
         <v>43097</v>
@@ -8590,7 +9275,9 @@
       <c r="BJ23" s="10"/>
       <c r="BK23" s="7"/>
       <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
+      <c r="BM23" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN23" s="6"/>
       <c r="BO23" s="8">
         <v>43098</v>
@@ -8621,13 +9308,13 @@
     <row r="24" spans="1:83">
       <c r="A24" s="3"/>
       <c r="B24" s="23" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="3"/>
@@ -8657,7 +9344,9 @@
       <c r="AD24" s="9"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="7"/>
+      <c r="AG24" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH24" s="6">
         <v>1</v>
       </c>
@@ -8675,7 +9364,9 @@
       </c>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
+      <c r="AO24" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP24" s="6"/>
       <c r="AQ24" s="8">
         <v>43095</v>
@@ -8687,7 +9378,9 @@
       <c r="AT24" s="9"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
-      <c r="AW24" s="7"/>
+      <c r="AW24" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX24" s="6"/>
       <c r="AY24" s="8">
         <v>43097</v>
@@ -8707,7 +9400,9 @@
       <c r="BJ24" s="10"/>
       <c r="BK24" s="7"/>
       <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
+      <c r="BM24" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN24" s="6"/>
       <c r="BO24" s="8">
         <v>43098</v>
@@ -8738,13 +9433,13 @@
     <row r="25" spans="1:83">
       <c r="A25" s="3"/>
       <c r="B25" s="23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="3"/>
@@ -8774,7 +9469,9 @@
       <c r="AD25" s="9"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="7"/>
+      <c r="AG25" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH25" s="6">
         <v>1</v>
       </c>
@@ -8792,7 +9489,9 @@
       </c>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
+      <c r="AO25" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP25" s="6"/>
       <c r="AQ25" s="8">
         <v>43095</v>
@@ -8804,7 +9503,9 @@
       <c r="AT25" s="9"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
-      <c r="AW25" s="7"/>
+      <c r="AW25" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX25" s="6"/>
       <c r="AY25" s="8">
         <v>43097</v>
@@ -8824,7 +9525,9 @@
       <c r="BJ25" s="10"/>
       <c r="BK25" s="7"/>
       <c r="BL25" s="7"/>
-      <c r="BM25" s="7"/>
+      <c r="BM25" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN25" s="6"/>
       <c r="BO25" s="8">
         <v>43098</v>
@@ -8855,13 +9558,13 @@
     <row r="26" spans="1:83">
       <c r="A26" s="3"/>
       <c r="B26" s="23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="3"/>
@@ -8891,7 +9594,9 @@
       <c r="AD26" s="9"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="7"/>
+      <c r="AG26" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH26" s="6">
         <v>1</v>
       </c>
@@ -8909,7 +9614,9 @@
       </c>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
+      <c r="AO26" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="8">
         <v>43095</v>
@@ -8921,7 +9628,9 @@
       <c r="AT26" s="9"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
+      <c r="AW26" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX26" s="6"/>
       <c r="AY26" s="8">
         <v>43097</v>
@@ -8941,7 +9650,9 @@
       <c r="BJ26" s="10"/>
       <c r="BK26" s="7"/>
       <c r="BL26" s="7"/>
-      <c r="BM26" s="7"/>
+      <c r="BM26" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN26" s="6"/>
       <c r="BO26" s="8">
         <v>43098</v>
@@ -8972,13 +9683,13 @@
     <row r="27" spans="1:83">
       <c r="A27" s="3"/>
       <c r="B27" s="23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="3"/>
@@ -9008,7 +9719,9 @@
       <c r="AD27" s="9"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="7"/>
+      <c r="AG27" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH27" s="6">
         <v>1</v>
       </c>
@@ -9026,7 +9739,9 @@
       </c>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
+      <c r="AO27" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="8">
         <v>43095</v>
@@ -9038,7 +9753,9 @@
       <c r="AT27" s="9"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7"/>
-      <c r="AW27" s="7"/>
+      <c r="AW27" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX27" s="6"/>
       <c r="AY27" s="8">
         <v>43097</v>
@@ -9058,7 +9775,9 @@
       <c r="BJ27" s="10"/>
       <c r="BK27" s="7"/>
       <c r="BL27" s="7"/>
-      <c r="BM27" s="7"/>
+      <c r="BM27" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN27" s="6"/>
       <c r="BO27" s="8">
         <v>43098</v>
@@ -9089,13 +9808,13 @@
     <row r="28" spans="1:83" s="44" customFormat="1">
       <c r="A28" s="32"/>
       <c r="B28" s="33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="32"/>
@@ -9125,7 +9844,9 @@
       <c r="AD28" s="39"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
-      <c r="AG28" s="36"/>
+      <c r="AG28" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AH28" s="37">
         <v>1</v>
       </c>
@@ -9139,7 +9860,9 @@
       </c>
       <c r="AM28" s="36"/>
       <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
+      <c r="AO28" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP28" s="37"/>
       <c r="AQ28" s="8">
         <v>43095</v>
@@ -9151,7 +9874,9 @@
       <c r="AT28" s="39"/>
       <c r="AU28" s="36"/>
       <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
+      <c r="AW28" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AX28" s="37"/>
       <c r="AY28" s="8">
         <v>43097</v>
@@ -9171,7 +9896,9 @@
       <c r="BJ28" s="40"/>
       <c r="BK28" s="36"/>
       <c r="BL28" s="36"/>
-      <c r="BM28" s="7"/>
+      <c r="BM28" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN28" s="37"/>
       <c r="BO28" s="8">
         <v>43098</v>
@@ -9202,13 +9929,13 @@
     <row r="29" spans="1:83" s="44" customFormat="1">
       <c r="A29" s="32"/>
       <c r="B29" s="33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="32"/>
@@ -9238,7 +9965,9 @@
       <c r="AD29" s="39"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
-      <c r="AG29" s="36"/>
+      <c r="AG29" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AH29" s="37">
         <v>1</v>
       </c>
@@ -9252,7 +9981,9 @@
       </c>
       <c r="AM29" s="36"/>
       <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
+      <c r="AO29" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP29" s="37"/>
       <c r="AQ29" s="8">
         <v>43095</v>
@@ -9264,7 +9995,9 @@
       <c r="AT29" s="39"/>
       <c r="AU29" s="36"/>
       <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
+      <c r="AW29" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AX29" s="37"/>
       <c r="AY29" s="8">
         <v>43097</v>
@@ -9284,7 +10017,9 @@
       <c r="BJ29" s="40"/>
       <c r="BK29" s="36"/>
       <c r="BL29" s="36"/>
-      <c r="BM29" s="7"/>
+      <c r="BM29" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN29" s="37"/>
       <c r="BO29" s="8">
         <v>43098</v>
@@ -9315,13 +10050,13 @@
     <row r="30" spans="1:83" s="44" customFormat="1">
       <c r="A30" s="32"/>
       <c r="B30" s="33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="32"/>
@@ -9351,7 +10086,9 @@
       <c r="AD30" s="39"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
-      <c r="AG30" s="36"/>
+      <c r="AG30" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AH30" s="37">
         <v>1</v>
       </c>
@@ -9365,7 +10102,9 @@
       </c>
       <c r="AM30" s="36"/>
       <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
+      <c r="AO30" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP30" s="37"/>
       <c r="AQ30" s="8">
         <v>43095</v>
@@ -9377,7 +10116,9 @@
       <c r="AT30" s="39"/>
       <c r="AU30" s="36"/>
       <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
+      <c r="AW30" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AX30" s="37"/>
       <c r="AY30" s="8">
         <v>43097</v>
@@ -9397,7 +10138,9 @@
       <c r="BJ30" s="40"/>
       <c r="BK30" s="36"/>
       <c r="BL30" s="36"/>
-      <c r="BM30" s="7"/>
+      <c r="BM30" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN30" s="37"/>
       <c r="BO30" s="8">
         <v>43098</v>
@@ -9428,13 +10171,13 @@
     <row r="31" spans="1:83" s="44" customFormat="1">
       <c r="A31" s="32"/>
       <c r="B31" s="33" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="32"/>
@@ -9464,7 +10207,9 @@
       <c r="AD31" s="39"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
-      <c r="AG31" s="36"/>
+      <c r="AG31" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AH31" s="37">
         <v>1</v>
       </c>
@@ -9478,7 +10223,9 @@
       </c>
       <c r="AM31" s="36"/>
       <c r="AN31" s="36"/>
-      <c r="AO31" s="36"/>
+      <c r="AO31" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP31" s="37"/>
       <c r="AQ31" s="8">
         <v>43095</v>
@@ -9490,7 +10237,9 @@
       <c r="AT31" s="39"/>
       <c r="AU31" s="36"/>
       <c r="AV31" s="36"/>
-      <c r="AW31" s="36"/>
+      <c r="AW31" s="36" t="s">
+        <v>114</v>
+      </c>
       <c r="AX31" s="37"/>
       <c r="AY31" s="8">
         <v>43097</v>
@@ -9510,7 +10259,9 @@
       <c r="BJ31" s="40"/>
       <c r="BK31" s="36"/>
       <c r="BL31" s="36"/>
-      <c r="BM31" s="7"/>
+      <c r="BM31" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN31" s="37"/>
       <c r="BO31" s="8">
         <v>43098</v>
@@ -9541,13 +10292,13 @@
     <row r="32" spans="1:83" s="44" customFormat="1">
       <c r="A32" s="32"/>
       <c r="B32" s="33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="32"/>
@@ -9577,7 +10328,9 @@
       <c r="AD32" s="39"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
-      <c r="AG32" s="46"/>
+      <c r="AG32" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AH32" s="37">
         <v>1</v>
       </c>
@@ -9591,7 +10344,9 @@
       </c>
       <c r="AM32" s="36"/>
       <c r="AN32" s="36"/>
-      <c r="AO32" s="36"/>
+      <c r="AO32" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP32" s="37"/>
       <c r="AQ32" s="8">
         <v>43095</v>
@@ -9603,7 +10358,9 @@
       <c r="AT32" s="39"/>
       <c r="AU32" s="36"/>
       <c r="AV32" s="36"/>
-      <c r="AW32" s="46"/>
+      <c r="AW32" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AX32" s="37"/>
       <c r="AY32" s="8">
         <v>43097</v>
@@ -9623,7 +10380,9 @@
       <c r="BJ32" s="40"/>
       <c r="BK32" s="36"/>
       <c r="BL32" s="36"/>
-      <c r="BM32" s="7"/>
+      <c r="BM32" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN32" s="37"/>
       <c r="BO32" s="8">
         <v>43098</v>
@@ -9650,13 +10409,13 @@
     <row r="33" spans="1:83" s="44" customFormat="1">
       <c r="A33" s="32"/>
       <c r="B33" s="33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="32"/>
@@ -9686,7 +10445,9 @@
       <c r="AD33" s="39"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
-      <c r="AG33" s="46"/>
+      <c r="AG33" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AH33" s="37">
         <v>1</v>
       </c>
@@ -9700,7 +10461,9 @@
       </c>
       <c r="AM33" s="36"/>
       <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
+      <c r="AO33" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP33" s="37"/>
       <c r="AQ33" s="8">
         <v>43095</v>
@@ -9712,7 +10475,9 @@
       <c r="AT33" s="39"/>
       <c r="AU33" s="36"/>
       <c r="AV33" s="36"/>
-      <c r="AW33" s="46"/>
+      <c r="AW33" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AX33" s="37"/>
       <c r="AY33" s="8">
         <v>43097</v>
@@ -9732,7 +10497,9 @@
       <c r="BJ33" s="40"/>
       <c r="BK33" s="36"/>
       <c r="BL33" s="36"/>
-      <c r="BM33" s="7"/>
+      <c r="BM33" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN33" s="37"/>
       <c r="BO33" s="8">
         <v>43098</v>
@@ -9759,13 +10526,13 @@
     <row r="34" spans="1:83" s="44" customFormat="1">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="32"/>
@@ -9795,7 +10562,9 @@
       <c r="AD34" s="39"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
-      <c r="AG34" s="46"/>
+      <c r="AG34" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AH34" s="37">
         <v>1</v>
       </c>
@@ -9809,7 +10578,9 @@
       </c>
       <c r="AM34" s="36"/>
       <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
+      <c r="AO34" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP34" s="37"/>
       <c r="AQ34" s="8">
         <v>43095</v>
@@ -9821,7 +10592,9 @@
       <c r="AT34" s="39"/>
       <c r="AU34" s="36"/>
       <c r="AV34" s="36"/>
-      <c r="AW34" s="46"/>
+      <c r="AW34" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="AX34" s="37"/>
       <c r="AY34" s="8">
         <v>43097</v>
@@ -9841,7 +10614,9 @@
       <c r="BJ34" s="40"/>
       <c r="BK34" s="36"/>
       <c r="BL34" s="36"/>
-      <c r="BM34" s="7"/>
+      <c r="BM34" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN34" s="37"/>
       <c r="BO34" s="8">
         <v>43098</v>
@@ -9868,14 +10643,14 @@
     <row r="35" spans="1:83">
       <c r="A35" s="3"/>
       <c r="B35" s="23" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -9959,16 +10734,16 @@
     <row r="36" spans="1:83">
       <c r="A36" s="3"/>
       <c r="B36" s="23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -9997,7 +10772,9 @@
       <c r="AD36" s="9"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="7"/>
+      <c r="AG36" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH36" s="6"/>
       <c r="AI36" s="8">
         <v>43075</v>
@@ -10017,7 +10794,9 @@
       <c r="AT36" s="9"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
-      <c r="AW36" s="7"/>
+      <c r="AW36" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX36" s="6"/>
       <c r="AY36" s="8"/>
       <c r="AZ36" s="8"/>
@@ -10056,16 +10835,16 @@
     <row r="37" spans="1:83">
       <c r="A37" s="3"/>
       <c r="B37" s="23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -10094,7 +10873,9 @@
       <c r="AD37" s="9"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
-      <c r="AG37" s="7"/>
+      <c r="AG37" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH37" s="6"/>
       <c r="AI37" s="8">
         <v>43076</v>
@@ -10114,7 +10895,9 @@
       <c r="AT37" s="9"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7"/>
-      <c r="AW37" s="7"/>
+      <c r="AW37" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX37" s="6"/>
       <c r="AY37" s="8"/>
       <c r="AZ37" s="8"/>
@@ -10153,13 +10936,13 @@
     <row r="38" spans="1:83">
       <c r="A38" s="3"/>
       <c r="B38" s="23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="3"/>
@@ -10189,7 +10972,9 @@
       <c r="AD38" s="9"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
-      <c r="AG38" s="7"/>
+      <c r="AG38" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH38" s="6"/>
       <c r="AI38" s="8">
         <v>43076</v>
@@ -10201,7 +10986,9 @@
       <c r="AL38" s="9"/>
       <c r="AM38" s="7"/>
       <c r="AN38" s="7"/>
-      <c r="AO38" s="36"/>
+      <c r="AO38" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP38" s="6"/>
       <c r="AQ38" s="8">
         <v>43096</v>
@@ -10213,7 +11000,9 @@
       <c r="AT38" s="9"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
-      <c r="AW38" s="7"/>
+      <c r="AW38" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX38" s="6"/>
       <c r="AY38" s="8">
         <v>43097</v>
@@ -10233,7 +11022,9 @@
       <c r="BJ38" s="10"/>
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
-      <c r="BM38" s="7"/>
+      <c r="BM38" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="BN38" s="6"/>
       <c r="BO38" s="8">
         <v>43098</v>
@@ -10261,10 +11052,10 @@
       <c r="A39" s="3"/>
       <c r="B39" s="23"/>
       <c r="C39" s="27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="3"/>
@@ -10294,7 +11085,9 @@
       <c r="AD39" s="9"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-      <c r="AG39" s="7"/>
+      <c r="AG39" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH39" s="6"/>
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
@@ -10302,7 +11095,9 @@
       <c r="AL39" s="9"/>
       <c r="AM39" s="7"/>
       <c r="AN39" s="7"/>
-      <c r="AO39" s="36"/>
+      <c r="AO39" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP39" s="6"/>
       <c r="AQ39" s="8">
         <v>43096</v>
@@ -10314,7 +11109,9 @@
       <c r="AT39" s="9"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7"/>
-      <c r="AW39" s="7"/>
+      <c r="AW39" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX39" s="6"/>
       <c r="AY39" s="8">
         <v>43097</v>
@@ -10334,7 +11131,9 @@
       <c r="BJ39" s="10"/>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="7"/>
+      <c r="BM39" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN39" s="6"/>
       <c r="BO39" s="8">
         <v>43098</v>
@@ -10365,16 +11164,16 @@
     <row r="40" spans="1:83">
       <c r="A40" s="3"/>
       <c r="B40" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -10403,7 +11202,9 @@
       <c r="AD40" s="9"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="7"/>
+      <c r="AG40" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH40" s="6"/>
       <c r="AI40" s="8">
         <v>43077</v>
@@ -10423,7 +11224,9 @@
       <c r="AT40" s="9"/>
       <c r="AU40" s="7"/>
       <c r="AV40" s="7"/>
-      <c r="AW40" s="7"/>
+      <c r="AW40" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX40" s="6"/>
       <c r="AY40" s="8"/>
       <c r="AZ40" s="8"/>
@@ -10462,16 +11265,16 @@
     <row r="41" spans="1:83">
       <c r="A41" s="3"/>
       <c r="B41" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -10500,7 +11303,9 @@
       <c r="AD41" s="9"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
-      <c r="AG41" s="7"/>
+      <c r="AG41" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH41" s="6"/>
       <c r="AI41" s="8">
         <v>43077</v>
@@ -10520,7 +11325,9 @@
       <c r="AT41" s="9"/>
       <c r="AU41" s="7"/>
       <c r="AV41" s="7"/>
-      <c r="AW41" s="7"/>
+      <c r="AW41" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX41" s="6"/>
       <c r="AY41" s="8"/>
       <c r="AZ41" s="8"/>
@@ -10559,13 +11366,13 @@
     <row r="42" spans="1:83">
       <c r="A42" s="3"/>
       <c r="B42" s="23" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="3"/>
@@ -10595,7 +11402,9 @@
       <c r="AD42" s="9"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
-      <c r="AG42" s="7"/>
+      <c r="AG42" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH42" s="6"/>
       <c r="AI42" s="8">
         <v>43077</v>
@@ -10615,7 +11424,9 @@
       <c r="AT42" s="9"/>
       <c r="AU42" s="7"/>
       <c r="AV42" s="7"/>
-      <c r="AW42" s="7"/>
+      <c r="AW42" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX42" s="6"/>
       <c r="AY42" s="8">
         <v>43097</v>
@@ -10635,7 +11446,9 @@
       <c r="BJ42" s="10"/>
       <c r="BK42" s="7"/>
       <c r="BL42" s="7"/>
-      <c r="BM42" s="7"/>
+      <c r="BM42" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="BN42" s="6"/>
       <c r="BO42" s="8">
         <v>43098</v>
@@ -10663,10 +11476,10 @@
       <c r="A43" s="3"/>
       <c r="B43" s="23"/>
       <c r="C43" s="27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="3"/>
@@ -10696,7 +11509,9 @@
       <c r="AD43" s="9"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
-      <c r="AG43" s="7"/>
+      <c r="AG43" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AH43" s="6">
         <v>1</v>
       </c>
@@ -10710,7 +11525,9 @@
       </c>
       <c r="AM43" s="7"/>
       <c r="AN43" s="7"/>
-      <c r="AO43" s="36"/>
+      <c r="AO43" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP43" s="6"/>
       <c r="AQ43" s="8">
         <v>43096</v>
@@ -10722,7 +11539,9 @@
       <c r="AT43" s="9"/>
       <c r="AU43" s="7"/>
       <c r="AV43" s="7"/>
-      <c r="AW43" s="7"/>
+      <c r="AW43" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="AX43" s="6"/>
       <c r="AY43" s="8">
         <v>43097</v>
@@ -10742,7 +11561,9 @@
       <c r="BJ43" s="10"/>
       <c r="BK43" s="7"/>
       <c r="BL43" s="7"/>
-      <c r="BM43" s="7"/>
+      <c r="BM43" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="BN43" s="6"/>
       <c r="BO43" s="8">
         <v>43098</v>
@@ -10773,13 +11594,13 @@
     <row r="44" spans="1:83">
       <c r="A44" s="3"/>
       <c r="B44" s="23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="3"/>
@@ -10809,7 +11630,9 @@
       <c r="AD44" s="9"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
-      <c r="AG44" s="7"/>
+      <c r="AG44" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH44" s="6"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
@@ -10817,7 +11640,9 @@
       <c r="AL44" s="9"/>
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
-      <c r="AO44" s="36"/>
+      <c r="AO44" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="8">
         <v>43096</v>
@@ -10829,7 +11654,9 @@
       <c r="AT44" s="9"/>
       <c r="AU44" s="7"/>
       <c r="AV44" s="7"/>
-      <c r="AW44" s="7"/>
+      <c r="AW44" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX44" s="6"/>
       <c r="AY44" s="8">
         <v>43097</v>
@@ -10849,7 +11676,9 @@
       <c r="BJ44" s="10"/>
       <c r="BK44" s="7"/>
       <c r="BL44" s="7"/>
-      <c r="BM44" s="7"/>
+      <c r="BM44" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN44" s="6"/>
       <c r="BO44" s="8">
         <v>43098</v>
@@ -10880,13 +11709,13 @@
     <row r="45" spans="1:83">
       <c r="A45" s="3"/>
       <c r="B45" s="23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="3"/>
@@ -10916,7 +11745,9 @@
       <c r="AD45" s="9"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-      <c r="AG45" s="7"/>
+      <c r="AG45" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH45" s="6"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
@@ -10924,7 +11755,9 @@
       <c r="AL45" s="9"/>
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
-      <c r="AO45" s="36"/>
+      <c r="AO45" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="8">
         <v>43096</v>
@@ -10936,7 +11769,9 @@
       <c r="AT45" s="9"/>
       <c r="AU45" s="7"/>
       <c r="AV45" s="7"/>
-      <c r="AW45" s="7"/>
+      <c r="AW45" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX45" s="6"/>
       <c r="AY45" s="8">
         <v>43097</v>
@@ -10956,7 +11791,9 @@
       <c r="BJ45" s="10"/>
       <c r="BK45" s="7"/>
       <c r="BL45" s="7"/>
-      <c r="BM45" s="7"/>
+      <c r="BM45" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN45" s="6"/>
       <c r="BO45" s="8">
         <v>43098</v>
@@ -10988,10 +11825,10 @@
       <c r="A46" s="3"/>
       <c r="B46" s="23"/>
       <c r="C46" s="27" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="3"/>
@@ -11021,7 +11858,9 @@
       <c r="AD46" s="9"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
-      <c r="AG46" s="7"/>
+      <c r="AG46" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AH46" s="6"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
@@ -11029,7 +11868,9 @@
       <c r="AL46" s="9"/>
       <c r="AM46" s="7"/>
       <c r="AN46" s="7"/>
-      <c r="AO46" s="36"/>
+      <c r="AO46" s="36" t="s">
+        <v>165</v>
+      </c>
       <c r="AP46" s="6"/>
       <c r="AQ46" s="8">
         <v>43096</v>
@@ -11041,7 +11882,9 @@
       <c r="AT46" s="9"/>
       <c r="AU46" s="7"/>
       <c r="AV46" s="7"/>
-      <c r="AW46" s="7"/>
+      <c r="AW46" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="AX46" s="6"/>
       <c r="AY46" s="8">
         <v>43097</v>
@@ -11061,7 +11904,9 @@
       <c r="BJ46" s="10"/>
       <c r="BK46" s="7"/>
       <c r="BL46" s="7"/>
-      <c r="BM46" s="7"/>
+      <c r="BM46" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="BN46" s="6"/>
       <c r="BO46" s="8">
         <v>43098</v>
@@ -11095,7 +11940,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -11178,13 +12023,13 @@
     </row>
     <row r="48" spans="1:83">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -11267,16 +12112,16 @@
     </row>
     <row r="49" spans="1:83">
       <c r="A49" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="3"/>
@@ -11306,7 +12151,9 @@
       <c r="AD49" s="9"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="7"/>
+      <c r="AG49" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AH49" s="6"/>
       <c r="AI49" s="8">
         <v>43094</v>
@@ -11318,7 +12165,9 @@
       <c r="AL49" s="9"/>
       <c r="AM49" s="7"/>
       <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
+      <c r="AO49" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP49" s="6"/>
       <c r="AQ49" s="8">
         <v>43097</v>
@@ -11330,7 +12179,9 @@
       <c r="AT49" s="8"/>
       <c r="AU49" s="7"/>
       <c r="AV49" s="7"/>
-      <c r="AW49" s="7"/>
+      <c r="AW49" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AX49" s="6"/>
       <c r="AY49" s="8">
         <v>43097</v>
@@ -11350,7 +12201,9 @@
       <c r="BJ49" s="10"/>
       <c r="BK49" s="7"/>
       <c r="BL49" s="7"/>
-      <c r="BM49" s="7"/>
+      <c r="BM49" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="BN49" s="6"/>
       <c r="BO49" s="8">
         <v>42737</v>
@@ -11376,16 +12229,16 @@
     </row>
     <row r="50" spans="1:83">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="3"/>
@@ -11415,7 +12268,9 @@
       <c r="AD50" s="9"/>
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
-      <c r="AG50" s="7"/>
+      <c r="AG50" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AH50" s="6"/>
       <c r="AI50" s="8">
         <v>43095</v>
@@ -11427,7 +12282,9 @@
       <c r="AL50" s="9"/>
       <c r="AM50" s="7"/>
       <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
+      <c r="AO50" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="AP50" s="6"/>
       <c r="AQ50" s="8">
         <v>43097</v>
@@ -11439,7 +12296,9 @@
       <c r="AT50" s="8"/>
       <c r="AU50" s="7"/>
       <c r="AV50" s="7"/>
-      <c r="AW50" s="7"/>
+      <c r="AW50" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="AX50" s="6"/>
       <c r="AY50" s="8">
         <v>43097</v>
@@ -11459,7 +12318,9 @@
       <c r="BJ50" s="10"/>
       <c r="BK50" s="7"/>
       <c r="BL50" s="7"/>
-      <c r="BM50" s="7"/>
+      <c r="BM50" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="BN50" s="6"/>
       <c r="BO50" s="8">
         <v>42737</v>
@@ -11485,16 +12346,16 @@
     </row>
     <row r="51" spans="1:83">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="3"/>
@@ -11524,7 +12385,9 @@
       <c r="AD51" s="9"/>
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
-      <c r="AG51" s="7"/>
+      <c r="AG51" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AH51" s="6"/>
       <c r="AI51" s="8">
         <v>43096</v>
@@ -11536,7 +12399,9 @@
       <c r="AL51" s="9"/>
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
-      <c r="AO51" s="7"/>
+      <c r="AO51" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP51" s="6"/>
       <c r="AQ51" s="8">
         <v>43097</v>
@@ -11548,7 +12413,9 @@
       <c r="AT51" s="8"/>
       <c r="AU51" s="7"/>
       <c r="AV51" s="7"/>
-      <c r="AW51" s="7"/>
+      <c r="AW51" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AX51" s="6"/>
       <c r="AY51" s="8">
         <v>43097</v>
@@ -11568,7 +12435,9 @@
       <c r="BJ51" s="10"/>
       <c r="BK51" s="7"/>
       <c r="BL51" s="7"/>
-      <c r="BM51" s="7"/>
+      <c r="BM51" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="BN51" s="6"/>
       <c r="BO51" s="8">
         <v>42737</v>
@@ -11594,13 +12463,13 @@
     </row>
     <row r="52" spans="1:83">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -11683,13 +12552,13 @@
     </row>
     <row r="53" spans="1:83">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11718,7 +12587,9 @@
       <c r="AD53" s="9"/>
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
-      <c r="AG53" s="28"/>
+      <c r="AG53" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="AH53" s="6"/>
       <c r="AI53" s="8">
         <v>43094</v>
@@ -11776,13 +12647,13 @@
     </row>
     <row r="54" spans="1:83">
       <c r="A54" s="48" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -11865,17 +12736,17 @@
     </row>
     <row r="55" spans="1:83">
       <c r="A55" s="49" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -11959,13 +12830,13 @@
     <row r="56" spans="1:83">
       <c r="A56" s="3"/>
       <c r="B56" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="3"/>
@@ -11995,7 +12866,9 @@
       <c r="AD56" s="9"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-      <c r="AG56" s="28"/>
+      <c r="AG56" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH56" s="6">
         <v>1</v>
       </c>
@@ -12013,7 +12886,9 @@
       </c>
       <c r="AM56" s="7"/>
       <c r="AN56" s="7"/>
-      <c r="AO56" s="7"/>
+      <c r="AO56" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP56" s="6"/>
       <c r="AQ56" s="8">
         <v>43096</v>
@@ -12025,7 +12900,9 @@
       <c r="AT56" s="9"/>
       <c r="AU56" s="7"/>
       <c r="AV56" s="7"/>
-      <c r="AW56" s="28"/>
+      <c r="AW56" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX56" s="6"/>
       <c r="AY56" s="8">
         <v>43097</v>
@@ -12045,7 +12922,9 @@
       <c r="BJ56" s="10"/>
       <c r="BK56" s="7"/>
       <c r="BL56" s="7"/>
-      <c r="BM56" s="7"/>
+      <c r="BM56" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN56" s="6"/>
       <c r="BO56" s="8">
         <v>42737</v>
@@ -12072,13 +12951,13 @@
     <row r="57" spans="1:83">
       <c r="A57" s="3"/>
       <c r="B57" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="3"/>
@@ -12108,7 +12987,9 @@
       <c r="AD57" s="9"/>
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
-      <c r="AG57" s="28"/>
+      <c r="AG57" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH57" s="6">
         <v>1</v>
       </c>
@@ -12126,7 +13007,9 @@
       </c>
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
+      <c r="AO57" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP57" s="6"/>
       <c r="AQ57" s="8">
         <v>43096</v>
@@ -12138,7 +13021,9 @@
       <c r="AT57" s="9"/>
       <c r="AU57" s="7"/>
       <c r="AV57" s="7"/>
-      <c r="AW57" s="28"/>
+      <c r="AW57" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX57" s="6"/>
       <c r="AY57" s="8">
         <v>43097</v>
@@ -12158,7 +13043,9 @@
       <c r="BJ57" s="10"/>
       <c r="BK57" s="7"/>
       <c r="BL57" s="7"/>
-      <c r="BM57" s="7"/>
+      <c r="BM57" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN57" s="6"/>
       <c r="BO57" s="8">
         <v>42737</v>
@@ -12185,13 +13072,13 @@
     <row r="58" spans="1:83">
       <c r="A58" s="3"/>
       <c r="B58" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="3"/>
@@ -12221,7 +13108,9 @@
       <c r="AD58" s="9"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="28"/>
+      <c r="AG58" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH58" s="6">
         <v>1</v>
       </c>
@@ -12239,7 +13128,9 @@
       </c>
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
-      <c r="AO58" s="7"/>
+      <c r="AO58" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP58" s="6"/>
       <c r="AQ58" s="8">
         <v>43096</v>
@@ -12251,7 +13142,9 @@
       <c r="AT58" s="9"/>
       <c r="AU58" s="7"/>
       <c r="AV58" s="7"/>
-      <c r="AW58" s="28"/>
+      <c r="AW58" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX58" s="6"/>
       <c r="AY58" s="8">
         <v>43097</v>
@@ -12271,7 +13164,9 @@
       <c r="BJ58" s="10"/>
       <c r="BK58" s="7"/>
       <c r="BL58" s="7"/>
-      <c r="BM58" s="7"/>
+      <c r="BM58" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN58" s="6"/>
       <c r="BO58" s="8">
         <v>42737</v>
@@ -12298,13 +13193,13 @@
     <row r="59" spans="1:83">
       <c r="A59" s="3"/>
       <c r="B59" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="3"/>
@@ -12334,7 +13229,9 @@
       <c r="AD59" s="9"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-      <c r="AG59" s="28"/>
+      <c r="AG59" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH59" s="6">
         <v>1</v>
       </c>
@@ -12352,7 +13249,9 @@
       </c>
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
-      <c r="AO59" s="7"/>
+      <c r="AO59" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="8">
         <v>43096</v>
@@ -12364,7 +13263,9 @@
       <c r="AT59" s="9"/>
       <c r="AU59" s="7"/>
       <c r="AV59" s="7"/>
-      <c r="AW59" s="28"/>
+      <c r="AW59" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX59" s="6"/>
       <c r="AY59" s="8">
         <v>43097</v>
@@ -12384,7 +13285,9 @@
       <c r="BJ59" s="10"/>
       <c r="BK59" s="7"/>
       <c r="BL59" s="7"/>
-      <c r="BM59" s="7"/>
+      <c r="BM59" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN59" s="6"/>
       <c r="BO59" s="8">
         <v>42737</v>
@@ -12411,13 +13314,13 @@
     <row r="60" spans="1:83">
       <c r="A60" s="3"/>
       <c r="B60" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="3"/>
@@ -12447,7 +13350,9 @@
       <c r="AD60" s="9"/>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
-      <c r="AG60" s="28"/>
+      <c r="AG60" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH60" s="6">
         <v>1</v>
       </c>
@@ -12465,7 +13370,9 @@
       </c>
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
+      <c r="AO60" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP60" s="6"/>
       <c r="AQ60" s="8">
         <v>43096</v>
@@ -12477,7 +13384,9 @@
       <c r="AT60" s="9"/>
       <c r="AU60" s="7"/>
       <c r="AV60" s="7"/>
-      <c r="AW60" s="28"/>
+      <c r="AW60" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX60" s="6"/>
       <c r="AY60" s="8">
         <v>43097</v>
@@ -12497,7 +13406,9 @@
       <c r="BJ60" s="10"/>
       <c r="BK60" s="7"/>
       <c r="BL60" s="7"/>
-      <c r="BM60" s="7"/>
+      <c r="BM60" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN60" s="6"/>
       <c r="BO60" s="8">
         <v>42737</v>
@@ -12524,13 +13435,13 @@
     <row r="61" spans="1:83">
       <c r="A61" s="3"/>
       <c r="B61" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="D61" s="26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="3"/>
@@ -12560,7 +13471,9 @@
       <c r="AD61" s="9"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
-      <c r="AG61" s="28"/>
+      <c r="AG61" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH61" s="6">
         <v>1</v>
       </c>
@@ -12578,7 +13491,9 @@
       </c>
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
-      <c r="AO61" s="7"/>
+      <c r="AO61" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP61" s="6"/>
       <c r="AQ61" s="8">
         <v>43096</v>
@@ -12590,7 +13505,9 @@
       <c r="AT61" s="9"/>
       <c r="AU61" s="7"/>
       <c r="AV61" s="7"/>
-      <c r="AW61" s="28"/>
+      <c r="AW61" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX61" s="6"/>
       <c r="AY61" s="8">
         <v>43097</v>
@@ -12610,7 +13527,9 @@
       <c r="BJ61" s="10"/>
       <c r="BK61" s="7"/>
       <c r="BL61" s="7"/>
-      <c r="BM61" s="7"/>
+      <c r="BM61" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN61" s="6"/>
       <c r="BO61" s="8">
         <v>42737</v>
@@ -12637,13 +13556,13 @@
     <row r="62" spans="1:83">
       <c r="A62" s="3"/>
       <c r="B62" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="3"/>
@@ -12673,7 +13592,9 @@
       <c r="AD62" s="9"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
-      <c r="AG62" s="28"/>
+      <c r="AG62" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH62" s="6">
         <v>1</v>
       </c>
@@ -12691,7 +13612,9 @@
       </c>
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
-      <c r="AO62" s="7"/>
+      <c r="AO62" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP62" s="6"/>
       <c r="AQ62" s="8">
         <v>43096</v>
@@ -12703,7 +13626,9 @@
       <c r="AT62" s="9"/>
       <c r="AU62" s="7"/>
       <c r="AV62" s="7"/>
-      <c r="AW62" s="28"/>
+      <c r="AW62" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX62" s="6"/>
       <c r="AY62" s="8">
         <v>43097</v>
@@ -12723,7 +13648,9 @@
       <c r="BJ62" s="10"/>
       <c r="BK62" s="7"/>
       <c r="BL62" s="7"/>
-      <c r="BM62" s="7"/>
+      <c r="BM62" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN62" s="6"/>
       <c r="BO62" s="8">
         <v>42737</v>
@@ -12750,13 +13677,13 @@
     <row r="63" spans="1:83">
       <c r="A63" s="3"/>
       <c r="B63" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="3"/>
@@ -12786,7 +13713,9 @@
       <c r="AD63" s="9"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="28"/>
+      <c r="AG63" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH63" s="6">
         <v>1</v>
       </c>
@@ -12804,7 +13733,9 @@
       </c>
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
-      <c r="AO63" s="7"/>
+      <c r="AO63" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP63" s="6"/>
       <c r="AQ63" s="8">
         <v>43096</v>
@@ -12816,7 +13747,9 @@
       <c r="AT63" s="9"/>
       <c r="AU63" s="7"/>
       <c r="AV63" s="7"/>
-      <c r="AW63" s="28"/>
+      <c r="AW63" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX63" s="6"/>
       <c r="AY63" s="8">
         <v>43097</v>
@@ -12836,7 +13769,9 @@
       <c r="BJ63" s="10"/>
       <c r="BK63" s="7"/>
       <c r="BL63" s="7"/>
-      <c r="BM63" s="7"/>
+      <c r="BM63" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN63" s="6"/>
       <c r="BO63" s="8">
         <v>42737</v>
@@ -12863,13 +13798,13 @@
     <row r="64" spans="1:83">
       <c r="A64" s="3"/>
       <c r="B64" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="3"/>
@@ -12899,7 +13834,9 @@
       <c r="AD64" s="9"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="28"/>
+      <c r="AG64" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH64" s="6">
         <v>1</v>
       </c>
@@ -12917,7 +13854,9 @@
       </c>
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
-      <c r="AO64" s="7"/>
+      <c r="AO64" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP64" s="6"/>
       <c r="AQ64" s="8">
         <v>43096</v>
@@ -12929,7 +13868,9 @@
       <c r="AT64" s="9"/>
       <c r="AU64" s="7"/>
       <c r="AV64" s="7"/>
-      <c r="AW64" s="28"/>
+      <c r="AW64" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX64" s="6"/>
       <c r="AY64" s="8">
         <v>43097</v>
@@ -12949,7 +13890,9 @@
       <c r="BJ64" s="10"/>
       <c r="BK64" s="7"/>
       <c r="BL64" s="7"/>
-      <c r="BM64" s="7"/>
+      <c r="BM64" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN64" s="6"/>
       <c r="BO64" s="8">
         <v>42737</v>
@@ -12976,13 +13919,13 @@
     <row r="65" spans="1:83">
       <c r="A65" s="3"/>
       <c r="B65" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="3"/>
@@ -13012,7 +13955,9 @@
       <c r="AD65" s="9"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
-      <c r="AG65" s="28"/>
+      <c r="AG65" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH65" s="6">
         <v>1</v>
       </c>
@@ -13030,7 +13975,9 @@
       </c>
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
-      <c r="AO65" s="7"/>
+      <c r="AO65" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP65" s="6"/>
       <c r="AQ65" s="8">
         <v>43096</v>
@@ -13042,7 +13989,9 @@
       <c r="AT65" s="9"/>
       <c r="AU65" s="7"/>
       <c r="AV65" s="7"/>
-      <c r="AW65" s="28"/>
+      <c r="AW65" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX65" s="6"/>
       <c r="AY65" s="8">
         <v>43097</v>
@@ -13062,7 +14011,9 @@
       <c r="BJ65" s="10"/>
       <c r="BK65" s="7"/>
       <c r="BL65" s="7"/>
-      <c r="BM65" s="7"/>
+      <c r="BM65" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN65" s="6"/>
       <c r="BO65" s="8">
         <v>42737</v>
@@ -13089,13 +14040,13 @@
     <row r="66" spans="1:83">
       <c r="A66" s="3"/>
       <c r="B66" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="3"/>
@@ -13125,7 +14076,9 @@
       <c r="AD66" s="9"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="28"/>
+      <c r="AG66" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH66" s="6">
         <v>1</v>
       </c>
@@ -13143,7 +14096,9 @@
       </c>
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
-      <c r="AO66" s="7"/>
+      <c r="AO66" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP66" s="6"/>
       <c r="AQ66" s="8">
         <v>43096</v>
@@ -13155,7 +14110,9 @@
       <c r="AT66" s="9"/>
       <c r="AU66" s="7"/>
       <c r="AV66" s="7"/>
-      <c r="AW66" s="28"/>
+      <c r="AW66" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX66" s="6"/>
       <c r="AY66" s="8">
         <v>43097</v>
@@ -13175,7 +14132,9 @@
       <c r="BJ66" s="10"/>
       <c r="BK66" s="7"/>
       <c r="BL66" s="7"/>
-      <c r="BM66" s="7"/>
+      <c r="BM66" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN66" s="6"/>
       <c r="BO66" s="8">
         <v>42737</v>
@@ -13202,13 +14161,13 @@
     <row r="67" spans="1:83">
       <c r="A67" s="3"/>
       <c r="B67" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>71</v>
-      </c>
       <c r="D67" s="26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="3"/>
@@ -13238,7 +14197,9 @@
       <c r="AD67" s="9"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="28"/>
+      <c r="AG67" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH67" s="6">
         <v>1</v>
       </c>
@@ -13256,7 +14217,9 @@
       </c>
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
-      <c r="AO67" s="7"/>
+      <c r="AO67" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP67" s="6"/>
       <c r="AQ67" s="8">
         <v>43096</v>
@@ -13268,7 +14231,9 @@
       <c r="AT67" s="9"/>
       <c r="AU67" s="7"/>
       <c r="AV67" s="7"/>
-      <c r="AW67" s="28"/>
+      <c r="AW67" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX67" s="6"/>
       <c r="AY67" s="8">
         <v>43097</v>
@@ -13288,7 +14253,9 @@
       <c r="BJ67" s="10"/>
       <c r="BK67" s="7"/>
       <c r="BL67" s="7"/>
-      <c r="BM67" s="7"/>
+      <c r="BM67" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN67" s="6"/>
       <c r="BO67" s="8">
         <v>42737</v>
@@ -13314,17 +14281,17 @@
     </row>
     <row r="68" spans="1:83">
       <c r="A68" s="49" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -13408,13 +14375,13 @@
     <row r="69" spans="1:83">
       <c r="A69" s="3"/>
       <c r="B69" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="3"/>
@@ -13444,7 +14411,9 @@
       <c r="AD69" s="9"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="28"/>
+      <c r="AG69" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH69" s="6">
         <v>1</v>
       </c>
@@ -13462,7 +14431,9 @@
       </c>
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
-      <c r="AO69" s="7"/>
+      <c r="AO69" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP69" s="6"/>
       <c r="AQ69" s="8">
         <v>43097</v>
@@ -13474,7 +14445,9 @@
       <c r="AT69" s="9"/>
       <c r="AU69" s="7"/>
       <c r="AV69" s="7"/>
-      <c r="AW69" s="28"/>
+      <c r="AW69" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX69" s="6"/>
       <c r="AY69" s="8">
         <v>43097</v>
@@ -13494,7 +14467,9 @@
       <c r="BJ69" s="10"/>
       <c r="BK69" s="7"/>
       <c r="BL69" s="7"/>
-      <c r="BM69" s="7"/>
+      <c r="BM69" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN69" s="6"/>
       <c r="BO69" s="8">
         <v>42737</v>
@@ -13521,13 +14496,13 @@
     <row r="70" spans="1:83">
       <c r="A70" s="3"/>
       <c r="B70" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="3"/>
@@ -13557,7 +14532,9 @@
       <c r="AD70" s="9"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="28"/>
+      <c r="AG70" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH70" s="6">
         <v>1</v>
       </c>
@@ -13575,7 +14552,9 @@
       </c>
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
-      <c r="AO70" s="7"/>
+      <c r="AO70" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP70" s="6"/>
       <c r="AQ70" s="8">
         <v>43097</v>
@@ -13587,7 +14566,9 @@
       <c r="AT70" s="9"/>
       <c r="AU70" s="7"/>
       <c r="AV70" s="7"/>
-      <c r="AW70" s="28"/>
+      <c r="AW70" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX70" s="6"/>
       <c r="AY70" s="8">
         <v>43097</v>
@@ -13607,7 +14588,9 @@
       <c r="BJ70" s="10"/>
       <c r="BK70" s="7"/>
       <c r="BL70" s="7"/>
-      <c r="BM70" s="7"/>
+      <c r="BM70" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN70" s="6"/>
       <c r="BO70" s="8">
         <v>42737</v>
@@ -13634,13 +14617,13 @@
     <row r="71" spans="1:83">
       <c r="A71" s="3"/>
       <c r="B71" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="3"/>
@@ -13670,7 +14653,9 @@
       <c r="AD71" s="9"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="28"/>
+      <c r="AG71" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AH71" s="6">
         <v>1</v>
       </c>
@@ -13688,7 +14673,9 @@
       </c>
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
-      <c r="AO71" s="7"/>
+      <c r="AO71" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AP71" s="6"/>
       <c r="AQ71" s="8">
         <v>43097</v>
@@ -13700,7 +14687,9 @@
       <c r="AT71" s="9"/>
       <c r="AU71" s="7"/>
       <c r="AV71" s="7"/>
-      <c r="AW71" s="28"/>
+      <c r="AW71" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="AX71" s="6"/>
       <c r="AY71" s="8">
         <v>43097</v>
@@ -13720,7 +14709,9 @@
       <c r="BJ71" s="10"/>
       <c r="BK71" s="7"/>
       <c r="BL71" s="7"/>
-      <c r="BM71" s="7"/>
+      <c r="BM71" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="BN71" s="6"/>
       <c r="BO71" s="8">
         <v>42737</v>
@@ -13746,13 +14737,13 @@
     </row>
     <row r="72" spans="1:83">
       <c r="A72" s="47" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -13835,19 +14826,19 @@
     </row>
     <row r="73" spans="1:83">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -13931,16 +14922,16 @@
     <row r="74" spans="1:83">
       <c r="A74" s="3"/>
       <c r="B74" s="26" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -14024,14 +15015,14 @@
     <row r="75" spans="1:83">
       <c r="A75" s="3"/>
       <c r="B75" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C75" s="26"/>
       <c r="D75" s="26" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -14115,14 +15106,14 @@
     <row r="76" spans="1:83">
       <c r="A76" s="3"/>
       <c r="B76" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C76" s="26"/>
       <c r="D76" s="26" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -14206,14 +15197,14 @@
     <row r="77" spans="1:83">
       <c r="A77" s="3"/>
       <c r="B77" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C77" s="26"/>
       <c r="D77" s="26" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -14297,14 +15288,14 @@
     <row r="78" spans="1:83">
       <c r="A78" s="3"/>
       <c r="B78" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="26" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -14388,14 +15379,14 @@
     <row r="79" spans="1:83">
       <c r="A79" s="3"/>
       <c r="B79" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -14478,13 +15469,13 @@
     </row>
     <row r="80" spans="1:83">
       <c r="A80" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -14652,13 +15643,13 @@
     </row>
     <row r="82" spans="1:83">
       <c r="A82" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -14741,19 +15732,19 @@
     </row>
     <row r="83" spans="1:83">
       <c r="A83" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -14782,7 +15773,9 @@
       <c r="AD83" s="9"/>
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
-      <c r="AG83" s="7"/>
+      <c r="AG83" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AH83" s="6"/>
       <c r="AI83" s="8">
         <v>43122</v>
@@ -14794,7 +15787,9 @@
       <c r="AL83" s="9"/>
       <c r="AM83" s="7"/>
       <c r="AN83" s="7"/>
-      <c r="AO83" s="7"/>
+      <c r="AO83" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="AP83" s="6"/>
       <c r="AQ83" s="8">
         <v>43124</v>
@@ -14806,7 +15801,9 @@
       <c r="AT83" s="9"/>
       <c r="AU83" s="7"/>
       <c r="AV83" s="7"/>
-      <c r="AW83" s="7"/>
+      <c r="AW83" s="7" t="s">
+        <v>163</v>
+      </c>
       <c r="AX83" s="6"/>
       <c r="AY83" s="8">
         <v>43126</v>
@@ -14826,7 +15823,9 @@
       <c r="BJ83" s="10"/>
       <c r="BK83" s="7"/>
       <c r="BL83" s="7"/>
-      <c r="BM83" s="7"/>
+      <c r="BM83" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="BN83" s="6"/>
       <c r="BO83" s="8">
         <v>43132</v>
@@ -14852,13 +15851,13 @@
     </row>
     <row r="84" spans="1:83">
       <c r="A84" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -14941,17 +15940,17 @@
     </row>
     <row r="85" spans="1:83">
       <c r="A85" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="26" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -15035,13 +16034,13 @@
     <row r="86" spans="1:83">
       <c r="A86" s="3"/>
       <c r="B86" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="3"/>
@@ -15071,7 +16070,9 @@
       <c r="AD86" s="9"/>
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
-      <c r="AG86" s="7"/>
+      <c r="AG86" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH86" s="6"/>
       <c r="AI86" s="8">
         <v>43122</v>
@@ -15083,7 +16084,9 @@
       <c r="AL86" s="9"/>
       <c r="AM86" s="7"/>
       <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
+      <c r="AO86" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP86" s="6"/>
       <c r="AQ86" s="8">
         <v>43125</v>
@@ -15095,7 +16098,9 @@
       <c r="AT86" s="9"/>
       <c r="AU86" s="7"/>
       <c r="AV86" s="7"/>
-      <c r="AW86" s="7"/>
+      <c r="AW86" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX86" s="6"/>
       <c r="AY86" s="8">
         <v>43131</v>
@@ -15115,7 +16120,9 @@
       <c r="BJ86" s="10"/>
       <c r="BK86" s="7"/>
       <c r="BL86" s="7"/>
-      <c r="BM86" s="7"/>
+      <c r="BM86" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN86" s="6"/>
       <c r="BO86" s="8">
         <v>43132</v>
@@ -15142,13 +16149,13 @@
     <row r="87" spans="1:83">
       <c r="A87" s="3"/>
       <c r="B87" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="3"/>
@@ -15178,7 +16185,9 @@
       <c r="AD87" s="9"/>
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
-      <c r="AG87" s="7"/>
+      <c r="AG87" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH87" s="6"/>
       <c r="AI87" s="8">
         <v>43122</v>
@@ -15190,7 +16199,9 @@
       <c r="AL87" s="9"/>
       <c r="AM87" s="7"/>
       <c r="AN87" s="7"/>
-      <c r="AO87" s="7"/>
+      <c r="AO87" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP87" s="6"/>
       <c r="AQ87" s="8">
         <v>43125</v>
@@ -15202,7 +16213,9 @@
       <c r="AT87" s="9"/>
       <c r="AU87" s="7"/>
       <c r="AV87" s="7"/>
-      <c r="AW87" s="7"/>
+      <c r="AW87" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX87" s="6"/>
       <c r="AY87" s="8">
         <v>43131</v>
@@ -15222,7 +16235,9 @@
       <c r="BJ87" s="10"/>
       <c r="BK87" s="7"/>
       <c r="BL87" s="7"/>
-      <c r="BM87" s="7"/>
+      <c r="BM87" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN87" s="6"/>
       <c r="BO87" s="8">
         <v>43132</v>
@@ -15249,13 +16264,13 @@
     <row r="88" spans="1:83">
       <c r="A88" s="3"/>
       <c r="B88" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="3"/>
@@ -15285,7 +16300,9 @@
       <c r="AD88" s="9"/>
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
-      <c r="AG88" s="7"/>
+      <c r="AG88" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH88" s="6"/>
       <c r="AI88" s="8">
         <v>43122</v>
@@ -15297,7 +16314,9 @@
       <c r="AL88" s="9"/>
       <c r="AM88" s="7"/>
       <c r="AN88" s="7"/>
-      <c r="AO88" s="7"/>
+      <c r="AO88" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP88" s="6"/>
       <c r="AQ88" s="8">
         <v>43125</v>
@@ -15309,7 +16328,9 @@
       <c r="AT88" s="9"/>
       <c r="AU88" s="7"/>
       <c r="AV88" s="7"/>
-      <c r="AW88" s="7"/>
+      <c r="AW88" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX88" s="6"/>
       <c r="AY88" s="8">
         <v>43131</v>
@@ -15329,7 +16350,9 @@
       <c r="BJ88" s="10"/>
       <c r="BK88" s="7"/>
       <c r="BL88" s="7"/>
-      <c r="BM88" s="7"/>
+      <c r="BM88" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN88" s="6"/>
       <c r="BO88" s="8">
         <v>43132</v>
@@ -15356,13 +16379,13 @@
     <row r="89" spans="1:83">
       <c r="A89" s="3"/>
       <c r="B89" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="3"/>
@@ -15392,7 +16415,9 @@
       <c r="AD89" s="9"/>
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
-      <c r="AG89" s="7"/>
+      <c r="AG89" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH89" s="6"/>
       <c r="AI89" s="8">
         <v>43122</v>
@@ -15404,7 +16429,9 @@
       <c r="AL89" s="9"/>
       <c r="AM89" s="7"/>
       <c r="AN89" s="7"/>
-      <c r="AO89" s="7"/>
+      <c r="AO89" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP89" s="6"/>
       <c r="AQ89" s="8">
         <v>43125</v>
@@ -15416,7 +16443,9 @@
       <c r="AT89" s="9"/>
       <c r="AU89" s="7"/>
       <c r="AV89" s="7"/>
-      <c r="AW89" s="7"/>
+      <c r="AW89" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX89" s="6"/>
       <c r="AY89" s="8">
         <v>43131</v>
@@ -15436,7 +16465,9 @@
       <c r="BJ89" s="10"/>
       <c r="BK89" s="7"/>
       <c r="BL89" s="7"/>
-      <c r="BM89" s="7"/>
+      <c r="BM89" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN89" s="6"/>
       <c r="BO89" s="8">
         <v>43132</v>
@@ -15463,13 +16494,13 @@
     <row r="90" spans="1:83">
       <c r="A90" s="3"/>
       <c r="B90" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="3"/>
@@ -15499,7 +16530,9 @@
       <c r="AD90" s="9"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-      <c r="AG90" s="7"/>
+      <c r="AG90" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH90" s="6"/>
       <c r="AI90" s="8">
         <v>43122</v>
@@ -15511,7 +16544,9 @@
       <c r="AL90" s="9"/>
       <c r="AM90" s="7"/>
       <c r="AN90" s="7"/>
-      <c r="AO90" s="7"/>
+      <c r="AO90" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP90" s="6"/>
       <c r="AQ90" s="8">
         <v>43125</v>
@@ -15523,7 +16558,9 @@
       <c r="AT90" s="9"/>
       <c r="AU90" s="7"/>
       <c r="AV90" s="7"/>
-      <c r="AW90" s="7"/>
+      <c r="AW90" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX90" s="6"/>
       <c r="AY90" s="8">
         <v>43131</v>
@@ -15543,7 +16580,9 @@
       <c r="BJ90" s="10"/>
       <c r="BK90" s="7"/>
       <c r="BL90" s="7"/>
-      <c r="BM90" s="7"/>
+      <c r="BM90" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN90" s="6"/>
       <c r="BO90" s="8">
         <v>43132</v>
@@ -15570,13 +16609,13 @@
     <row r="91" spans="1:83">
       <c r="A91" s="3"/>
       <c r="B91" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="3"/>
@@ -15606,7 +16645,9 @@
       <c r="AD91" s="9"/>
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
-      <c r="AG91" s="7"/>
+      <c r="AG91" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH91" s="6"/>
       <c r="AI91" s="8">
         <v>43122</v>
@@ -15618,7 +16659,9 @@
       <c r="AL91" s="9"/>
       <c r="AM91" s="7"/>
       <c r="AN91" s="7"/>
-      <c r="AO91" s="7"/>
+      <c r="AO91" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP91" s="6"/>
       <c r="AQ91" s="8">
         <v>43125</v>
@@ -15630,7 +16673,9 @@
       <c r="AT91" s="9"/>
       <c r="AU91" s="7"/>
       <c r="AV91" s="7"/>
-      <c r="AW91" s="7"/>
+      <c r="AW91" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX91" s="6"/>
       <c r="AY91" s="8">
         <v>43131</v>
@@ -15650,7 +16695,9 @@
       <c r="BJ91" s="10"/>
       <c r="BK91" s="7"/>
       <c r="BL91" s="7"/>
-      <c r="BM91" s="7"/>
+      <c r="BM91" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN91" s="6"/>
       <c r="BO91" s="8">
         <v>43132</v>
@@ -15677,13 +16724,13 @@
     <row r="92" spans="1:83">
       <c r="A92" s="3"/>
       <c r="B92" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="3"/>
@@ -15713,7 +16760,9 @@
       <c r="AD92" s="9"/>
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
-      <c r="AG92" s="7"/>
+      <c r="AG92" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH92" s="6"/>
       <c r="AI92" s="8">
         <v>43122</v>
@@ -15725,7 +16774,9 @@
       <c r="AL92" s="9"/>
       <c r="AM92" s="7"/>
       <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
+      <c r="AO92" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP92" s="6"/>
       <c r="AQ92" s="8">
         <v>43125</v>
@@ -15737,7 +16788,9 @@
       <c r="AT92" s="9"/>
       <c r="AU92" s="7"/>
       <c r="AV92" s="7"/>
-      <c r="AW92" s="7"/>
+      <c r="AW92" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX92" s="6"/>
       <c r="AY92" s="8">
         <v>43131</v>
@@ -15757,7 +16810,9 @@
       <c r="BJ92" s="10"/>
       <c r="BK92" s="7"/>
       <c r="BL92" s="7"/>
-      <c r="BM92" s="7"/>
+      <c r="BM92" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN92" s="6"/>
       <c r="BO92" s="8">
         <v>43132</v>
@@ -15784,13 +16839,13 @@
     <row r="93" spans="1:83">
       <c r="A93" s="3"/>
       <c r="B93" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="3"/>
@@ -15820,7 +16875,9 @@
       <c r="AD93" s="9"/>
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
-      <c r="AG93" s="7"/>
+      <c r="AG93" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH93" s="6"/>
       <c r="AI93" s="8">
         <v>43122</v>
@@ -15832,7 +16889,9 @@
       <c r="AL93" s="9"/>
       <c r="AM93" s="7"/>
       <c r="AN93" s="7"/>
-      <c r="AO93" s="7"/>
+      <c r="AO93" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP93" s="6"/>
       <c r="AQ93" s="8">
         <v>43125</v>
@@ -15844,7 +16903,9 @@
       <c r="AT93" s="9"/>
       <c r="AU93" s="7"/>
       <c r="AV93" s="7"/>
-      <c r="AW93" s="7"/>
+      <c r="AW93" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX93" s="6"/>
       <c r="AY93" s="8">
         <v>43131</v>
@@ -15864,7 +16925,9 @@
       <c r="BJ93" s="10"/>
       <c r="BK93" s="7"/>
       <c r="BL93" s="7"/>
-      <c r="BM93" s="7"/>
+      <c r="BM93" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN93" s="6"/>
       <c r="BO93" s="8">
         <v>43132</v>
@@ -15891,14 +16954,14 @@
     <row r="94" spans="1:83">
       <c r="A94" s="3"/>
       <c r="B94" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="26" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -15982,13 +17045,13 @@
     <row r="95" spans="1:83">
       <c r="A95" s="3"/>
       <c r="B95" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="3"/>
@@ -16018,7 +17081,9 @@
       <c r="AD95" s="9"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-      <c r="AG95" s="7"/>
+      <c r="AG95" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH95" s="6"/>
       <c r="AI95" s="8">
         <v>43122</v>
@@ -16030,7 +17095,9 @@
       <c r="AL95" s="9"/>
       <c r="AM95" s="7"/>
       <c r="AN95" s="7"/>
-      <c r="AO95" s="7"/>
+      <c r="AO95" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP95" s="6"/>
       <c r="AQ95" s="8">
         <v>43125</v>
@@ -16042,7 +17109,9 @@
       <c r="AT95" s="9"/>
       <c r="AU95" s="7"/>
       <c r="AV95" s="7"/>
-      <c r="AW95" s="7"/>
+      <c r="AW95" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX95" s="6"/>
       <c r="AY95" s="8">
         <v>43131</v>
@@ -16062,7 +17131,9 @@
       <c r="BJ95" s="10"/>
       <c r="BK95" s="7"/>
       <c r="BL95" s="7"/>
-      <c r="BM95" s="7"/>
+      <c r="BM95" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN95" s="6"/>
       <c r="BO95" s="8">
         <v>43132</v>
@@ -16089,13 +17160,13 @@
     <row r="96" spans="1:83">
       <c r="A96" s="3"/>
       <c r="B96" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="3"/>
@@ -16125,7 +17196,9 @@
       <c r="AD96" s="9"/>
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
-      <c r="AG96" s="7"/>
+      <c r="AG96" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH96" s="6"/>
       <c r="AI96" s="8">
         <v>43122</v>
@@ -16137,7 +17210,9 @@
       <c r="AL96" s="9"/>
       <c r="AM96" s="7"/>
       <c r="AN96" s="7"/>
-      <c r="AO96" s="7"/>
+      <c r="AO96" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP96" s="6"/>
       <c r="AQ96" s="8">
         <v>43125</v>
@@ -16149,7 +17224,9 @@
       <c r="AT96" s="9"/>
       <c r="AU96" s="7"/>
       <c r="AV96" s="7"/>
-      <c r="AW96" s="7"/>
+      <c r="AW96" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX96" s="6"/>
       <c r="AY96" s="8">
         <v>43131</v>
@@ -16169,7 +17246,9 @@
       <c r="BJ96" s="10"/>
       <c r="BK96" s="7"/>
       <c r="BL96" s="7"/>
-      <c r="BM96" s="7"/>
+      <c r="BM96" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN96" s="6"/>
       <c r="BO96" s="8">
         <v>43132</v>
@@ -16196,13 +17275,13 @@
     <row r="97" spans="1:83">
       <c r="A97" s="3"/>
       <c r="B97" s="26" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="3"/>
@@ -16232,7 +17311,9 @@
       <c r="AD97" s="9"/>
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
-      <c r="AG97" s="7"/>
+      <c r="AG97" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AH97" s="6"/>
       <c r="AI97" s="8">
         <v>43122</v>
@@ -16244,7 +17325,9 @@
       <c r="AL97" s="9"/>
       <c r="AM97" s="7"/>
       <c r="AN97" s="7"/>
-      <c r="AO97" s="7"/>
+      <c r="AO97" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="AP97" s="6"/>
       <c r="AQ97" s="8">
         <v>43125</v>
@@ -16256,7 +17339,9 @@
       <c r="AT97" s="9"/>
       <c r="AU97" s="7"/>
       <c r="AV97" s="7"/>
-      <c r="AW97" s="7"/>
+      <c r="AW97" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="AX97" s="6"/>
       <c r="AY97" s="8">
         <v>43131</v>
@@ -16276,7 +17361,9 @@
       <c r="BJ97" s="10"/>
       <c r="BK97" s="7"/>
       <c r="BL97" s="7"/>
-      <c r="BM97" s="7"/>
+      <c r="BM97" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="BN97" s="6"/>
       <c r="BO97" s="8">
         <v>43132</v>
@@ -16304,13 +17391,13 @@
       <c r="A98" s="3"/>
       <c r="B98" s="26"/>
       <c r="C98" s="26" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -17165,31 +18252,39 @@
       </c>
     </row>
     <row r="111" spans="1:83">
-      <c r="AG111" s="18"/>
+      <c r="AG111" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="AH111" s="17">
         <f>SUMIF($AG$7:$AG$107,AG111,$CD$7:$CD$107)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="112" spans="1:83">
-      <c r="AG112" s="18"/>
+      <c r="AG112" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="AH112" s="17">
         <f>SUMIF($AG$7:$AG$107,AG112,$CD$7:$CD$107)</f>
-        <v>0</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="113" spans="33:34">
-      <c r="AG113" s="18"/>
+      <c r="AG113" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AH113" s="17">
         <f>SUMIF($AG$7:$AG$107,AG113,$CD$7:$CD$107)</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="114" spans="33:34">
-      <c r="AG114" s="18"/>
+      <c r="AG114" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AH114" s="17">
         <f>SUMIF($AG$7:$AG$107,AG114,$CD$7:$CD$107)</f>
-        <v>0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="115" spans="33:34">
@@ -17201,22 +18296,46 @@
   </sheetData>
   <autoFilter ref="A5:CD71"/>
   <mergeCells count="72">
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="CC3:CC5"/>
-    <mergeCell ref="CD3:CD5"/>
-    <mergeCell ref="CE3:CE5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
-    <mergeCell ref="AW4:AW5"/>
-    <mergeCell ref="AX4:AX5"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="Q3:X3"/>
+    <mergeCell ref="Y3:AF3"/>
+    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="AO3:AV3"/>
+    <mergeCell ref="AW3:BD3"/>
+    <mergeCell ref="BE3:BL3"/>
+    <mergeCell ref="BM3:BT3"/>
+    <mergeCell ref="BU3:CB3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BN4:BN5"/>
     <mergeCell ref="BQ4:BR4"/>
     <mergeCell ref="BW4:BX4"/>
     <mergeCell ref="BY4:BZ4"/>
@@ -17233,2189 +18352,2165 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AO3:AV3"/>
-    <mergeCell ref="AW3:BD3"/>
-    <mergeCell ref="BE3:BL3"/>
-    <mergeCell ref="BM3:BT3"/>
-    <mergeCell ref="BU3:CB3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="Q3:X3"/>
-    <mergeCell ref="Y3:AF3"/>
-    <mergeCell ref="AG3:AN3"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW4:AW5"/>
+    <mergeCell ref="AX4:AX5"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="CC3:CC5"/>
+    <mergeCell ref="CD3:CD5"/>
+    <mergeCell ref="CE3:CE5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="CA4:CA5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AX47:AX51 AH50:AO50 AP51 BA47:BL51 BN47:CC48 AO68 BA58:BD70 AP55:AP70 AS55:AV70 BN55:CC55 AQ68:AR68 BE55:BL70 A68:A70 E68:AG68 A107 E107:CC107 E69:AF70 AI69:AJ71 AH51:AN51 AS51:AV51 AX55:AZ55 AX56:AX67 AX68:AZ68 AX69:AX70 BN49:BN51 BQ49:CC51 BM68:CC68 BN56:BN67 BQ56:CC67 BN69:BN70 BQ69:CC70 AH55:AN70 A99:CC102">
-    <cfRule type="expression" dxfId="535" priority="659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="659" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="660" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO53 AO55">
-    <cfRule type="expression" dxfId="533" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="663" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="664" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG53">
-    <cfRule type="expression" dxfId="531" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="665" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="666" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:AF53 A47:AN49 BQ53:CC53 BN53 BI53:BL53 BF53 BA53:BD53 AX53 AS53:AV53 AP53 AH53:AN53 A55:AF59 A60:B67 D60:AF67 BM47:BM48 AP47:AP50 AS47:AV49 A50:AG51">
-    <cfRule type="expression" dxfId="529" priority="683" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="683" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="684" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="684" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS50:AV50">
-    <cfRule type="expression" dxfId="527" priority="685" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="685" stopIfTrue="1">
       <formula>$E50=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="686" stopIfTrue="1">
+    <cfRule type="expression" dxfId="574" priority="686" stopIfTrue="1">
       <formula>$E50="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA56:BD56">
-    <cfRule type="expression" dxfId="525" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="705" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="706" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA57:BD57">
-    <cfRule type="expression" dxfId="523" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="707" stopIfTrue="1">
       <formula>$E57=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="708" stopIfTrue="1">
       <formula>$E57="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM53">
-    <cfRule type="expression" dxfId="521" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="585" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="586" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY47:AZ48">
-    <cfRule type="expression" dxfId="519" priority="639" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="639" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="640" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="640" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY53:AZ53">
-    <cfRule type="expression" dxfId="517" priority="637" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="637" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="638" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="638" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG53:BH53">
-    <cfRule type="expression" dxfId="515" priority="629" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="629" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="630" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM55">
-    <cfRule type="expression" dxfId="513" priority="601" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="601" stopIfTrue="1">
       <formula>$E55=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="602" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="602" stopIfTrue="1">
       <formula>$E55="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO53:BP53">
-    <cfRule type="expression" dxfId="511" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="581" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="582" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN6:CC6 A6 E6:BL6">
-    <cfRule type="expression" dxfId="509" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="577" stopIfTrue="1">
       <formula>$E6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="578" stopIfTrue="1">
       <formula>$E6="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE52">
-    <cfRule type="expression" dxfId="507" priority="557" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="557" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="558" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="558" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY52:AZ52">
-    <cfRule type="expression" dxfId="505" priority="559" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="559" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="560" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="560" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ52:AR52">
-    <cfRule type="expression" dxfId="503" priority="563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="563" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="564" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="564" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO52">
-    <cfRule type="expression" dxfId="501" priority="565" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="565" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="566" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="566" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:AN52 AP52 AS52:AV52 AX52 BA52:BD52 BF52 BQ52:CC52 BI52:BN52">
-    <cfRule type="expression" dxfId="499" priority="567" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="567" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="568" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="568" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG52:BH52">
-    <cfRule type="expression" dxfId="497" priority="555" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="555" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="556" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="556" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO52:BP52">
-    <cfRule type="expression" dxfId="495" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="553" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="554" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="554" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AN54 AP54 AS54:AV54 AX54 BA54:BD54 BF54 BQ54:CC54 BI54:BN54">
-    <cfRule type="expression" dxfId="493" priority="549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="549" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="550" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO54">
-    <cfRule type="expression" dxfId="491" priority="547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="547" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="548" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="548" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ54:AR54">
-    <cfRule type="expression" dxfId="489" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="545" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="546" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY54:AZ54">
-    <cfRule type="expression" dxfId="487" priority="541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="541" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="542" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE54">
-    <cfRule type="expression" dxfId="485" priority="539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="539" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="540" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG54:BH54">
-    <cfRule type="expression" dxfId="483" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="537" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="538" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO54:BP54">
-    <cfRule type="expression" dxfId="481" priority="535" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="535" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="536" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C63">
-    <cfRule type="expression" dxfId="479" priority="533" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="533" stopIfTrue="1">
       <formula>$E60=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="534" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="534" stopIfTrue="1">
       <formula>$E60="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C67">
-    <cfRule type="expression" dxfId="477" priority="531" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="531" stopIfTrue="1">
       <formula>$E64=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="532" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="532" stopIfTrue="1">
       <formula>$E64="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG56:AG67">
-    <cfRule type="expression" dxfId="475" priority="529" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="529" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="530" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="530" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA55:BD55">
-    <cfRule type="expression" dxfId="473" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="703" stopIfTrue="1">
       <formula>$E55=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="704" stopIfTrue="1">
       <formula>$E55="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG55">
-    <cfRule type="expression" dxfId="471" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="673" stopIfTrue="1">
       <formula>$E55=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="674" stopIfTrue="1">
       <formula>$E55="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO47:AO48">
-    <cfRule type="expression" dxfId="469" priority="657" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="657" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="658" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="658" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ47:AR48">
-    <cfRule type="expression" dxfId="467" priority="655" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="655" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="656" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="656" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ55:AR55">
-    <cfRule type="expression" dxfId="465" priority="653" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="653" stopIfTrue="1">
       <formula>$E55=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="654" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="654" stopIfTrue="1">
       <formula>$E55="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE53">
-    <cfRule type="expression" dxfId="463" priority="631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="631" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="632" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM6">
-    <cfRule type="expression" dxfId="461" priority="575" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="575" stopIfTrue="1">
       <formula>$E6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="576" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="576" stopIfTrue="1">
       <formula>$E6="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="expression" dxfId="459" priority="573" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="573" stopIfTrue="1">
       <formula>$E6=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="574" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="574" stopIfTrue="1">
       <formula>$E6="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ7">
-    <cfRule type="expression" dxfId="457" priority="373" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="373" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="374" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="374" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK7">
-    <cfRule type="expression" dxfId="455" priority="325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="325" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="326" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA7:BD7">
-    <cfRule type="expression" dxfId="453" priority="519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="519" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="520" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="520" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10">
-    <cfRule type="expression" dxfId="451" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="357" stopIfTrue="1">
       <formula>$E10=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="358" stopIfTrue="1">
       <formula>$E10="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10">
-    <cfRule type="expression" dxfId="449" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="355" stopIfTrue="1">
       <formula>$E10=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="356" stopIfTrue="1">
       <formula>$E10="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AJ11">
-    <cfRule type="expression" dxfId="447" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="353" stopIfTrue="1">
       <formula>$E11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="354" stopIfTrue="1">
       <formula>$E11="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11:BD11">
-    <cfRule type="expression" dxfId="445" priority="513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="513" stopIfTrue="1">
       <formula>$E11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="514" stopIfTrue="1">
       <formula>$E11="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12">
-    <cfRule type="expression" dxfId="443" priority="351" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="351" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="352" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12">
-    <cfRule type="expression" dxfId="441" priority="349" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="349" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="350" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="350" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BD12">
-    <cfRule type="expression" dxfId="439" priority="515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="515" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="516" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13:AJ13">
-    <cfRule type="expression" dxfId="437" priority="347" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="347" stopIfTrue="1">
       <formula>$E13=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="348" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="348" stopIfTrue="1">
       <formula>$E13="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14">
-    <cfRule type="expression" dxfId="435" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="307" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="308" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI14:AJ14">
-    <cfRule type="expression" dxfId="433" priority="499" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="499" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="500" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ14">
-    <cfRule type="expression" dxfId="431" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="371" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="372" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="372" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="429" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="305" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="306" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL14">
-    <cfRule type="expression" dxfId="427" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="303" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="304" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG37:AG42">
-    <cfRule type="expression" dxfId="425" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="409" stopIfTrue="1">
       <formula>$E37=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="410" stopIfTrue="1">
       <formula>$E37="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="expression" dxfId="423" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="313" stopIfTrue="1">
       <formula>$E15=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="314" stopIfTrue="1">
       <formula>$E15="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AJ15">
-    <cfRule type="expression" dxfId="421" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="361" stopIfTrue="1">
       <formula>$E15=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="362" stopIfTrue="1">
       <formula>$E15="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK15">
-    <cfRule type="expression" dxfId="419" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="301" stopIfTrue="1">
       <formula>$E15=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="302" stopIfTrue="1">
       <formula>$E15="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL15">
-    <cfRule type="expression" dxfId="417" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="299" stopIfTrue="1">
       <formula>$E15=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="300" stopIfTrue="1">
       <formula>$E15="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH16">
-    <cfRule type="expression" dxfId="415" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="311" stopIfTrue="1">
       <formula>$E16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="312" stopIfTrue="1">
       <formula>$E16="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI16">
-    <cfRule type="expression" dxfId="413" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="369" stopIfTrue="1">
       <formula>$E16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="370" stopIfTrue="1">
       <formula>$E16="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16">
-    <cfRule type="expression" dxfId="411" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="367" stopIfTrue="1">
       <formula>$E16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="368" stopIfTrue="1">
       <formula>$E16="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK16">
-    <cfRule type="expression" dxfId="409" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="297" stopIfTrue="1">
       <formula>$E16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="298" stopIfTrue="1">
       <formula>$E16="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL16">
-    <cfRule type="expression" dxfId="407" priority="295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="295" stopIfTrue="1">
       <formula>$E16=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="296" stopIfTrue="1">
       <formula>$E16="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17">
-    <cfRule type="expression" dxfId="405" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="309" stopIfTrue="1">
       <formula>$E17=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="310" stopIfTrue="1">
       <formula>$E17="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI17">
-    <cfRule type="expression" dxfId="403" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="365" stopIfTrue="1">
       <formula>$E17=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="366" stopIfTrue="1">
       <formula>$E17="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ17">
-    <cfRule type="expression" dxfId="401" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="363" stopIfTrue="1">
       <formula>$E17=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="364" stopIfTrue="1">
       <formula>$E17="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK17">
-    <cfRule type="expression" dxfId="399" priority="293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="293" stopIfTrue="1">
       <formula>$E17=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="294" stopIfTrue="1">
       <formula>$E17="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG18">
-    <cfRule type="expression" dxfId="397" priority="501" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="501" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="502" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ18">
-    <cfRule type="expression" dxfId="395" priority="489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="489" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="490" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="490" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL19">
-    <cfRule type="expression" dxfId="393" priority="335" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="335" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="336" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="336" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL20">
-    <cfRule type="expression" dxfId="391" priority="333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="333" stopIfTrue="1">
       <formula>$E20=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="334" stopIfTrue="1">
       <formula>$E20="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL21">
-    <cfRule type="expression" dxfId="389" priority="331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="331" stopIfTrue="1">
       <formula>$E21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="332" stopIfTrue="1">
       <formula>$E21="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK23">
-    <cfRule type="expression" dxfId="387" priority="343" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="343" stopIfTrue="1">
       <formula>$E23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="344" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="344" stopIfTrue="1">
       <formula>$E23="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23">
-    <cfRule type="expression" dxfId="385" priority="341" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="341" stopIfTrue="1">
       <formula>$E23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="342" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="342" stopIfTrue="1">
       <formula>$E23="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="383" priority="443" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="443" stopIfTrue="1">
       <formula>$E23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="444" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="444" stopIfTrue="1">
       <formula>$E23="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA23:BD23">
-    <cfRule type="expression" dxfId="381" priority="441" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="441" stopIfTrue="1">
       <formula>$E23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="442" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="442" stopIfTrue="1">
       <formula>$E23="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24">
-    <cfRule type="expression" dxfId="379" priority="339" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="339" stopIfTrue="1">
       <formula>$E24=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="340" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="340" stopIfTrue="1">
       <formula>$E24="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24">
-    <cfRule type="expression" dxfId="377" priority="337" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="337" stopIfTrue="1">
       <formula>$E24=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="338" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="338" stopIfTrue="1">
       <formula>$E24="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="375" priority="329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="329" stopIfTrue="1">
       <formula>$E25=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="330" stopIfTrue="1">
       <formula>$E25="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL25">
-    <cfRule type="expression" dxfId="373" priority="323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="323" stopIfTrue="1">
       <formula>$E25=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="324" stopIfTrue="1">
       <formula>$E25="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI26">
-    <cfRule type="expression" dxfId="371" priority="433" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="433" stopIfTrue="1">
       <formula>$E26=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="434" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="434" stopIfTrue="1">
       <formula>$E26="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ26">
-    <cfRule type="expression" dxfId="369" priority="377" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="377" stopIfTrue="1">
       <formula>$E26=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="378" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="378" stopIfTrue="1">
       <formula>$E26="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26">
-    <cfRule type="expression" dxfId="367" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="317" stopIfTrue="1">
       <formula>$E26=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="318" stopIfTrue="1">
       <formula>$E26="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL26">
-    <cfRule type="expression" dxfId="365" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="321" stopIfTrue="1">
       <formula>$E26=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="322" stopIfTrue="1">
       <formula>$E26="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK27">
-    <cfRule type="expression" dxfId="363" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="315" stopIfTrue="1">
       <formula>$E27=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="316" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="316" stopIfTrue="1">
       <formula>$E27="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL27">
-    <cfRule type="expression" dxfId="361" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="319" stopIfTrue="1">
       <formula>$E27=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="320" stopIfTrue="1">
       <formula>$E27="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35">
-    <cfRule type="expression" dxfId="359" priority="437" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="437" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="438" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="438" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ35">
-    <cfRule type="expression" dxfId="357" priority="435" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="435" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="436" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="436" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY35">
-    <cfRule type="expression" dxfId="355" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="421" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="422" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ35">
-    <cfRule type="expression" dxfId="353" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="419" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="420" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY36">
-    <cfRule type="expression" dxfId="351" priority="417" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="417" stopIfTrue="1">
       <formula>$E36=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="418" stopIfTrue="1">
       <formula>$E36="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ36">
-    <cfRule type="expression" dxfId="349" priority="415" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="415" stopIfTrue="1">
       <formula>$E36=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="416" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="416" stopIfTrue="1">
       <formula>$E36="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI40">
-    <cfRule type="expression" dxfId="347" priority="387" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="387" stopIfTrue="1">
       <formula>$E40=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="388" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="388" stopIfTrue="1">
       <formula>$E40="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ40">
-    <cfRule type="expression" dxfId="345" priority="385" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="385" stopIfTrue="1">
       <formula>$E40=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="386" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="386" stopIfTrue="1">
       <formula>$E40="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ41">
-    <cfRule type="expression" dxfId="343" priority="381" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="381" stopIfTrue="1">
       <formula>$E41=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="382" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="382" stopIfTrue="1">
       <formula>$E41="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ42">
-    <cfRule type="expression" dxfId="341" priority="379" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="379" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="380" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="380" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12:AG13">
-    <cfRule type="expression" dxfId="339" priority="403" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="403" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="404" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="404" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="337" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="291" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="292" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="335" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="289" stopIfTrue="1">
       <formula>$E45=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="290" stopIfTrue="1">
       <formula>$E45="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E42">
-    <cfRule type="expression" dxfId="333" priority="327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="327" stopIfTrue="1">
       <formula>$E36=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="328" stopIfTrue="1">
       <formula>$E36="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG14:AG17">
-    <cfRule type="expression" dxfId="331" priority="405" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="405" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="406" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="406" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19:AG25">
-    <cfRule type="expression" dxfId="329" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="407" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="408" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35:AG36">
-    <cfRule type="expression" dxfId="327" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="427" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="428" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="428" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG43:AG46">
-    <cfRule type="expression" dxfId="325" priority="473" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="473" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="474" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="474" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI8:AI9">
-    <cfRule type="expression" dxfId="323" priority="493" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="493" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="494" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="494" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18:AI19">
-    <cfRule type="expression" dxfId="321" priority="491" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="491" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="492" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="492" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20:AI21">
-    <cfRule type="expression" dxfId="319" priority="401" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="401" stopIfTrue="1">
       <formula>$E20=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="402" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="402" stopIfTrue="1">
       <formula>$E20="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI22:AI24">
-    <cfRule type="expression" dxfId="317" priority="397" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="397" stopIfTrue="1">
       <formula>$E22=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="398" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="398" stopIfTrue="1">
       <formula>$E22="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI41:AI42">
-    <cfRule type="expression" dxfId="315" priority="383" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="383" stopIfTrue="1">
       <formula>$E41=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="384" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="384" stopIfTrue="1">
       <formula>$E41="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI43:AI46">
-    <cfRule type="expression" dxfId="313" priority="497" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="497" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="498" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="498" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ9">
-    <cfRule type="expression" dxfId="311" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="359" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="360" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19:AJ21">
-    <cfRule type="expression" dxfId="309" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="399" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="400" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="400" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ24">
-    <cfRule type="expression" dxfId="307" priority="395" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="395" stopIfTrue="1">
       <formula>$E22=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="396" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="396" stopIfTrue="1">
       <formula>$E22="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ43:AJ46">
-    <cfRule type="expression" dxfId="305" priority="495" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="495" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="496" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="496" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK8:AK9">
-    <cfRule type="expression" dxfId="303" priority="345" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="345" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="346" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="346" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36 AI25">
-    <cfRule type="expression" dxfId="301" priority="393" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="393" stopIfTrue="1">
       <formula>$E25=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="394" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="394" stopIfTrue="1">
       <formula>$E25="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF35:BF36 BF23:BF26 AM23:AN25 A36:D36 F36:AF36 AP24:AP25">
-    <cfRule type="expression" dxfId="299" priority="439" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="439" stopIfTrue="1">
       <formula>$E23=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="440" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="440" stopIfTrue="1">
       <formula>$E23="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36 AJ25">
-    <cfRule type="expression" dxfId="297" priority="391" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="391" stopIfTrue="1">
       <formula>$E25=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="392" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="392" stopIfTrue="1">
       <formula>$E25="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF43:BF46">
-    <cfRule type="expression" dxfId="295" priority="503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="503" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="504" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM18">
-    <cfRule type="expression" dxfId="293" priority="483" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="483" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="484" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="484" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM40">
-    <cfRule type="expression" dxfId="291" priority="475" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="475" stopIfTrue="1">
       <formula>$E40=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="476" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="476" stopIfTrue="1">
       <formula>$E40="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM41">
-    <cfRule type="expression" dxfId="289" priority="481" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="481" stopIfTrue="1">
       <formula>$E41=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="482" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="482" stopIfTrue="1">
       <formula>$E41="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7 AI27:AJ34 BF27:BF34 AQ35:AV36 BA24:BD36 AH23:AH36 BG23:BL36 BE23:BE36 BM35:CC36 AX23:AX36 AM26:AN27 A23:AF35 AG26:AG34 AP26:AP27 AK28:AP36 AS23:AV34 BN23:BN34 BQ23:CC34">
-    <cfRule type="expression" dxfId="287" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="375" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="376" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="376" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA21:BD21 BA10:BD10 AS7:AV7 AX7:AX22 BN18:CC18 BE7:BL22 AH7:AH13 AH18:AH22 AK37:AO37 AH37:AH46 BF37:BL38 BE37:BE39 BN37:CC37 AX37:AX46 AS37:AV46 AL7:AO9 AK10:AO11 AM14:AN16 AL17:AN17 AK18:AO18 AK22:AN22 AK19:AK21 AM19:AO19 A8:AF22 AG7:AG11 A37:D42 F37:AF42 BA40:BE46 A43:B43 D43:AF43 A44:AF44 BG39:BL46 BF39:BF42 A45 C45:AF45 A46:AF46 B7:D7 F7:AF7 AK12:AN13 AO12:AO17 AM20:AN21 AO20:AO27 AK38:AN39 AK40:AP42 AK43:AN46 AP43:AP46 BM7:BN7 BN8:BN17 BQ7:CC17 BN19:BN22 BQ19:CC22 BN40:CC41 BN38:BN39 BQ38:CC39 BN42:BN46 BQ42:CC46 AS18:AV22 AU8:AV17 AP7:AP20">
-    <cfRule type="expression" dxfId="285" priority="505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="505" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="506" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA8:BD9">
-    <cfRule type="expression" dxfId="283" priority="517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="517" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="518" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA13:BD20">
-    <cfRule type="expression" dxfId="281" priority="511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="511" stopIfTrue="1">
       <formula>$E13=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="512" stopIfTrue="1">
       <formula>$E13="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18 AQ37 AQ40:AQ42">
-    <cfRule type="expression" dxfId="279" priority="459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="459" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="460" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR18 AR37 AR40:AR42">
-    <cfRule type="expression" dxfId="277" priority="457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="457" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="458" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY18 AY37 AY40:AY41">
-    <cfRule type="expression" dxfId="275" priority="447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="447" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="448" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ18 AZ37 AZ40:AZ41">
-    <cfRule type="expression" dxfId="273" priority="445" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="445" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="446" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP21:AP22 AP37:AP39">
-    <cfRule type="expression" dxfId="271" priority="521" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="521" stopIfTrue="1">
       <formula>$E21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="522" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="522" stopIfTrue="1">
       <formula>$E21="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM37">
-    <cfRule type="expression" dxfId="269" priority="477" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="477" stopIfTrue="1">
       <formula>$E37=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="478" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="478" stopIfTrue="1">
       <formula>$E37="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA22:BD22 BA37:BD37">
-    <cfRule type="expression" dxfId="267" priority="507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="507" stopIfTrue="1">
       <formula>$E22=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="508" stopIfTrue="1">
       <formula>$E22="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI37:AJ39">
-    <cfRule type="expression" dxfId="265" priority="389" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="389" stopIfTrue="1">
       <formula>$E37=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="390" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="390" stopIfTrue="1">
       <formula>$E37="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA38:BD39">
-    <cfRule type="expression" dxfId="263" priority="509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="509" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="510" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="261" priority="287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="287" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="288" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="259" priority="285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="285" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="286" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:D68">
-    <cfRule type="expression" dxfId="257" priority="283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="283" stopIfTrue="1">
       <formula>$E68=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="284" stopIfTrue="1">
       <formula>$E68="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:D69">
-    <cfRule type="expression" dxfId="255" priority="281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="281" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="282" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70 D70">
-    <cfRule type="expression" dxfId="253" priority="279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="279" stopIfTrue="1">
       <formula>$E70=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="280" stopIfTrue="1">
       <formula>$E70="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="251" priority="277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="277" stopIfTrue="1">
       <formula>$E70=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="278" stopIfTrue="1">
       <formula>$E70="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107 D107">
-    <cfRule type="expression" dxfId="249" priority="275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="275" stopIfTrue="1">
       <formula>$E107=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="276" stopIfTrue="1">
       <formula>$E107="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="expression" dxfId="247" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="273" stopIfTrue="1">
       <formula>$E107=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="274" stopIfTrue="1">
       <formula>$E107="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A72 E72:CC72 E71:AF71 AH71:AN71 AP71 AS71:AV71 AX71 BA71:BL71 BN71 BQ71:CC71 E103:CC106 A103:A106 E73:E80">
-    <cfRule type="expression" dxfId="245" priority="271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="271" stopIfTrue="1">
       <formula>$E71=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="272" stopIfTrue="1">
       <formula>$E71="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71:B72 D71:D72 D103:D106 B103:B106">
-    <cfRule type="expression" dxfId="243" priority="269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="269" stopIfTrue="1">
       <formula>$E71=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="270" stopIfTrue="1">
       <formula>$E71="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72 C103:C106">
-    <cfRule type="expression" dxfId="241" priority="267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="267" stopIfTrue="1">
       <formula>$E71=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="268" stopIfTrue="1">
       <formula>$E71="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG69:AG71">
-    <cfRule type="expression" dxfId="239" priority="265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="265" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="266" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38">
-    <cfRule type="expression" dxfId="237" priority="263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="263" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="264" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO43">
-    <cfRule type="expression" dxfId="235" priority="261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="261" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="262" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO49">
-    <cfRule type="expression" dxfId="233" priority="259" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="259" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="260" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="260" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO51">
-    <cfRule type="expression" dxfId="231" priority="257" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="257" stopIfTrue="1">
       <formula>$E51=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="258" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="258" stopIfTrue="1">
       <formula>$E51="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY56:AY67">
-    <cfRule type="expression" dxfId="229" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="147" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="148" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO56:AO67">
-    <cfRule type="expression" dxfId="227" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="251" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="252" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO69:AO71">
-    <cfRule type="expression" dxfId="225" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="249" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="250" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ7">
-    <cfRule type="expression" dxfId="223" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="247" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="248" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR7">
-    <cfRule type="expression" dxfId="221" priority="245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="245" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="246" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:AQ34">
-    <cfRule type="expression" dxfId="219" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="243" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="244" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR19:AR34">
-    <cfRule type="expression" dxfId="217" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="241" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="242" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ8:AR17">
-    <cfRule type="expression" dxfId="215" priority="239" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="239" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="240" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ38">
-    <cfRule type="expression" dxfId="213" priority="237" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="237" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="238" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44:AO46">
-    <cfRule type="expression" dxfId="211" priority="235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="235" stopIfTrue="1">
       <formula>$E44=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="236" stopIfTrue="1">
       <formula>$E44="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO39">
-    <cfRule type="expression" dxfId="209" priority="233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="233" stopIfTrue="1">
       <formula>$E39=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="234" stopIfTrue="1">
       <formula>$E39="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR38">
-    <cfRule type="expression" dxfId="207" priority="231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="231" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="232" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ39:AR39">
-    <cfRule type="expression" dxfId="205" priority="229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="229" stopIfTrue="1">
       <formula>$E39=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="230" stopIfTrue="1">
       <formula>$E39="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ43:AR46">
-    <cfRule type="expression" dxfId="203" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="227" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="228" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19:AZ34">
-    <cfRule type="expression" dxfId="201" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="161" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="162" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY38:AY39">
-    <cfRule type="expression" dxfId="199" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="159" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="160" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ38:AZ39">
-    <cfRule type="expression" dxfId="197" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="157" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="158" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ53:AR53">
-    <cfRule type="expression" dxfId="195" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="219" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="220" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ56:AR67">
-    <cfRule type="expression" dxfId="193" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="217" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="218" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ69">
-    <cfRule type="expression" dxfId="191" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="215" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="216" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR69">
-    <cfRule type="expression" dxfId="189" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="213" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="214" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ70:AQ71">
-    <cfRule type="expression" dxfId="187" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="211" stopIfTrue="1">
       <formula>$E70=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="212" stopIfTrue="1">
       <formula>$E70="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR70:AR71">
-    <cfRule type="expression" dxfId="185" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="209" stopIfTrue="1">
       <formula>$E70=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="210" stopIfTrue="1">
       <formula>$E70="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ49:AR51">
-    <cfRule type="expression" dxfId="183" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="207" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="208" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW68">
-    <cfRule type="expression" dxfId="181" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="199" stopIfTrue="1">
       <formula>$E68=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="200" stopIfTrue="1">
       <formula>$E68="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW53">
-    <cfRule type="expression" dxfId="179" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="201" stopIfTrue="1">
       <formula>$E53=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="202" stopIfTrue="1">
       <formula>$E53="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW47:AW51">
-    <cfRule type="expression" dxfId="177" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="205" stopIfTrue="1">
       <formula>$E47=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="206" stopIfTrue="1">
       <formula>$E47="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW52">
-    <cfRule type="expression" dxfId="175" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="197" stopIfTrue="1">
       <formula>$E52=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="198" stopIfTrue="1">
       <formula>$E52="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW54">
-    <cfRule type="expression" dxfId="173" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="195" stopIfTrue="1">
       <formula>$E54=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="196" stopIfTrue="1">
       <formula>$E54="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW56:AW67">
-    <cfRule type="expression" dxfId="171" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="193" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="194" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW55">
-    <cfRule type="expression" dxfId="169" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="203" stopIfTrue="1">
       <formula>$E55=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="204" stopIfTrue="1">
       <formula>$E55="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW18">
-    <cfRule type="expression" dxfId="167" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="189" stopIfTrue="1">
       <formula>$E18=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="190" stopIfTrue="1">
       <formula>$E18="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW12:AW13">
-    <cfRule type="expression" dxfId="165" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="177" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="178" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW14:AW17">
-    <cfRule type="expression" dxfId="163" priority="179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="179" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="180" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW19:AW25">
-    <cfRule type="expression" dxfId="161" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="181" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="182" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW35:AW36">
-    <cfRule type="expression" dxfId="159" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="185" stopIfTrue="1">
       <formula>$E35=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="186" stopIfTrue="1">
       <formula>$E35="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW37:AW42">
-    <cfRule type="expression" dxfId="157" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="183" stopIfTrue="1">
       <formula>$E37=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="184" stopIfTrue="1">
       <formula>$E37="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW43:AW46">
-    <cfRule type="expression" dxfId="155" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="187" stopIfTrue="1">
       <formula>$E43=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="188" stopIfTrue="1">
       <formula>$E43="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW26:AW34">
-    <cfRule type="expression" dxfId="153" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="175" stopIfTrue="1">
       <formula>$E26=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="176" stopIfTrue="1">
       <formula>$E26="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW7:AW11">
-    <cfRule type="expression" dxfId="151" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="191" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="192" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW69:AW71">
-    <cfRule type="expression" dxfId="149" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="173" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="174" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY7">
-    <cfRule type="expression" dxfId="147" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="171" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="172" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ7">
-    <cfRule type="expression" dxfId="145" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="169" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="170" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY8:AY17">
-    <cfRule type="expression" dxfId="143" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="167" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="168" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ8:AZ17">
-    <cfRule type="expression" dxfId="141" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="165" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="166" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ56:AZ67">
-    <cfRule type="expression" dxfId="139" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="145" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="146" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY19:AY34">
-    <cfRule type="expression" dxfId="137" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="163" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="164" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY42:AY46">
-    <cfRule type="expression" dxfId="135" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="155" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="156" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ42:AZ46">
-    <cfRule type="expression" dxfId="133" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="153" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="154" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY49:AY51">
-    <cfRule type="expression" dxfId="131" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="151" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="152" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ49:AZ51">
-    <cfRule type="expression" dxfId="129" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="149" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="150" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY69:AY71">
-    <cfRule type="expression" dxfId="127" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="143" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="144" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ69:AZ71">
-    <cfRule type="expression" dxfId="125" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="141" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="142" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM12:BM17">
-    <cfRule type="expression" dxfId="123" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="139" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="140" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:BM34">
-    <cfRule type="expression" dxfId="121" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="137" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="138" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM38">
-    <cfRule type="expression" dxfId="119" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="135" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="136" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM39">
-    <cfRule type="expression" dxfId="117" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="133" stopIfTrue="1">
       <formula>$E39=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="134" stopIfTrue="1">
       <formula>$E39="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM42:BM43">
-    <cfRule type="expression" dxfId="115" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="131" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="132" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM44:BM46">
-    <cfRule type="expression" dxfId="113" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="129" stopIfTrue="1">
       <formula>$E44=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="130" stopIfTrue="1">
       <formula>$E44="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM8:BM11">
-    <cfRule type="expression" dxfId="111" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="115" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="116" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM49:BM51">
-    <cfRule type="expression" dxfId="109" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="113" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="114" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM56:BM67">
-    <cfRule type="expression" dxfId="107" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="111" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="112" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM69:BM71">
-    <cfRule type="expression" dxfId="105" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="109" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="110" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO7">
-    <cfRule type="expression" dxfId="103" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="107" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="108" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7">
-    <cfRule type="expression" dxfId="101" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="105" stopIfTrue="1">
       <formula>$E7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="106" stopIfTrue="1">
       <formula>$E7="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO8:BO11">
-    <cfRule type="expression" dxfId="99" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="103" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="104" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP8:BP11">
-    <cfRule type="expression" dxfId="97" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="101" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="102" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO12:BO17">
-    <cfRule type="expression" dxfId="95" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="99" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="100" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP12:BP17">
-    <cfRule type="expression" dxfId="93" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="97" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="98" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO19:BO34">
-    <cfRule type="expression" dxfId="91" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="95" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="96" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP19:BP34">
-    <cfRule type="expression" dxfId="89" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="93" stopIfTrue="1">
       <formula>$E19=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="94" stopIfTrue="1">
       <formula>$E19="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO38:BO39">
-    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="91" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="92" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP38:BP39">
-    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="89" stopIfTrue="1">
       <formula>$E38=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="90" stopIfTrue="1">
       <formula>$E38="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO42:BO46">
-    <cfRule type="expression" dxfId="83" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="87" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="88" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP42:BP46">
-    <cfRule type="expression" dxfId="81" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="85" stopIfTrue="1">
       <formula>$E42=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="86" stopIfTrue="1">
       <formula>$E42="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO49">
-    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="83" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="84" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP49">
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="79" stopIfTrue="1">
       <formula>$E49=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="80" stopIfTrue="1">
       <formula>$E49="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO50:BO51">
-    <cfRule type="expression" dxfId="75" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="77" stopIfTrue="1">
       <formula>$E50=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="78" stopIfTrue="1">
       <formula>$E50="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP50:BP51">
-    <cfRule type="expression" dxfId="73" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="75" stopIfTrue="1">
       <formula>$E50=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="76" stopIfTrue="1">
       <formula>$E50="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO56:BO67">
-    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="73" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="74" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP56:BP67">
-    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="71" stopIfTrue="1">
       <formula>$E56=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="72" stopIfTrue="1">
       <formula>$E56="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO69:BO71">
-    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="69" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="70" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP69:BP71">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="67" stopIfTrue="1">
       <formula>$E69=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="68" stopIfTrue="1">
       <formula>$E69="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8">
-    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="65" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="66" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT8">
-    <cfRule type="expression" dxfId="61" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="63" stopIfTrue="1">
       <formula>$E8=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="64" stopIfTrue="1">
       <formula>$E8="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS11">
-    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="61" stopIfTrue="1">
       <formula>$E9=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="62" stopIfTrue="1">
       <formula>$E9="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AT11">
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="59" stopIfTrue="1">
       <formula>$E9=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="60" stopIfTrue="1">
       <formula>$E9="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS12:AS13">
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="57" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="58" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12:AT13">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="55" stopIfTrue="1">
       <formula>$E12=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="56" stopIfTrue="1">
       <formula>$E12="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS14:AS17">
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="53" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="54" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AT17">
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="51" stopIfTrue="1">
       <formula>$E14=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="52" stopIfTrue="1">
       <formula>$E14="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:CC81 A81">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="49" stopIfTrue="1">
       <formula>$E81=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="50" stopIfTrue="1">
       <formula>$E81="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81 B81">
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="47" stopIfTrue="1">
       <formula>$E81=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="48" stopIfTrue="1">
       <formula>$E81="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="45" stopIfTrue="1">
       <formula>$E81=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="46" stopIfTrue="1">
       <formula>$E81="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:A80 F77:CC80">
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="43" stopIfTrue="1">
       <formula>$E77=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="44" stopIfTrue="1">
       <formula>$E77="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:D80 B80">
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="41" stopIfTrue="1">
       <formula>$E77=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="42" stopIfTrue="1">
       <formula>$E77="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C80">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="39" stopIfTrue="1">
       <formula>$E77=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="40" stopIfTrue="1">
       <formula>$E77="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:CC76 A73:A76">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="37" stopIfTrue="1">
       <formula>$E73=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="38" stopIfTrue="1">
       <formula>$E73="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73:D76 B73:B79">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="35" stopIfTrue="1">
       <formula>$E73=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="36" stopIfTrue="1">
       <formula>$E73="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:C76">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="33" stopIfTrue="1">
       <formula>$E73=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="34" stopIfTrue="1">
       <formula>$E73="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG95:AG97">
-    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="11" stopIfTrue="1">
       <formula>$E95=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="12" stopIfTrue="1">
       <formula>$E95="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:AF82 BA82:BD83 BE82:BL98 AG82:AG85 BM82 A83 E83:AF83 A84:AF98 AH82:AZ82 AH98:AZ98 AH83:AV97 AX83:AZ97 BN82:CC98">
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="23" stopIfTrue="1">
       <formula>$E82=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="24" stopIfTrue="1">
       <formula>$E82="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA86:BD98">
-    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="25" stopIfTrue="1">
       <formula>$E86=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="26" stopIfTrue="1">
       <formula>$E86="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA84:BD85">
-    <cfRule type="expression" dxfId="23" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="27" stopIfTrue="1">
       <formula>$E84=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="28" stopIfTrue="1">
       <formula>$E84="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG94">
-    <cfRule type="expression" dxfId="21" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="29" stopIfTrue="1">
       <formula>$E94=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="30" stopIfTrue="1">
       <formula>$E94="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG98">
-    <cfRule type="expression" dxfId="19" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="31" stopIfTrue="1">
       <formula>$E98=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="32" stopIfTrue="1">
       <formula>$E98="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM98">
-    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="21" stopIfTrue="1">
       <formula>$E98=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="22" stopIfTrue="1">
       <formula>$E98="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83 B83">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="17" stopIfTrue="1">
       <formula>$E83=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="18" stopIfTrue="1">
       <formula>$E83="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="15" stopIfTrue="1">
       <formula>$E83=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="16" stopIfTrue="1">
       <formula>$E83="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG86:AG93">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="13" stopIfTrue="1">
       <formula>$E86=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="14" stopIfTrue="1">
       <formula>$E86="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW95:AW97">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
       <formula>$E95=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
       <formula>$E95="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW83:AW85">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
       <formula>$E83=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
       <formula>$E83="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW94">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
       <formula>$E94=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>$E94="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW86:AW93">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>$E86=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$E86="废止"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM83:BM97">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$E83=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$E83="废止"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19456,7 +20551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19469,7 +20564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
